--- a/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
+++ b/doc/API_Design/API_Spec/BLOG_API_Spec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\_blog\blog\doc\API_Design\API_Spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\miniblog\miniblog-lam.vy\doc\API_Design\API_Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" firstSheet="6" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="927" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3447" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="479">
   <si>
     <t>Description</t>
   </si>
@@ -2436,7 +2436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2965,48 +2965,69 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3038,6 +3059,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3065,6 +3096,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3077,62 +3123,41 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3164,14 +3189,17 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3188,9 +3216,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="411" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3205,18 +3230,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="411" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3228,22 +3248,16 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3251,6 +3265,17 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3263,10 +3288,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="412">
@@ -8597,13 +8618,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>154668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1442811</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>86632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8714,15 +8735,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>536179</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>536178</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8731,8 +8752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="9239250"/>
-          <a:ext cx="8680054" cy="3895725"/>
+          <a:off x="847724" y="9486900"/>
+          <a:ext cx="8670529" cy="5181600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8972,6 +8993,70 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>"created_at" :1456223,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "modified_at"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> :1456223</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -8989,18 +9074,15 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      </a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -9162,8 +9244,87 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "title":"Hello, everybody"</a:t>
-          </a:r>
+            <a:t>      "title":"Hello, everybody",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>"created_at" :1456223,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "modified_at"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> :1456223</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:endParaRPr lang="en-GB">
             <a:effectLst/>
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -9273,13 +9434,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23083,303 +23244,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="241" t="s">
+      <c r="B1" s="279"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="243" t="s">
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="286" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="244"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246" t="s">
+      <c r="L1" s="287"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="247"/>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="247"/>
-      <c r="S1" s="247"/>
-      <c r="T1" s="247"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="249" t="s">
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="289" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="250"/>
-      <c r="AB1" s="250"/>
-      <c r="AC1" s="250"/>
-      <c r="AD1" s="251"/>
+      <c r="W1" s="290"/>
+      <c r="X1" s="290"/>
+      <c r="Y1" s="290"/>
+      <c r="Z1" s="290"/>
+      <c r="AA1" s="290"/>
+      <c r="AB1" s="290"/>
+      <c r="AC1" s="290"/>
+      <c r="AD1" s="291"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="278" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="241" t="s">
+      <c r="B2" s="279"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="281" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="255" t="s">
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="256"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="267" t="s">
+      <c r="L2" s="264"/>
+      <c r="M2" s="265"/>
+      <c r="N2" s="283" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="252" t="s">
+      <c r="O2" s="284"/>
+      <c r="P2" s="284"/>
+      <c r="Q2" s="284"/>
+      <c r="R2" s="284"/>
+      <c r="S2" s="284"/>
+      <c r="T2" s="284"/>
+      <c r="U2" s="285"/>
+      <c r="V2" s="260" t="s">
         <v>147</v>
       </c>
-      <c r="W2" s="253"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="252" t="s">
+      <c r="W2" s="261"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="260" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="254"/>
-      <c r="AB2" s="252" t="s">
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="253"/>
-      <c r="AD2" s="254"/>
+      <c r="AC2" s="261"/>
+      <c r="AD2" s="262"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258" t="s">
+      <c r="B3" s="264"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="259"/>
-      <c r="K3" s="255" t="s">
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="267"/>
+      <c r="K3" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="256"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="246" t="s">
+      <c r="L3" s="264"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="268" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="260" t="s">
+      <c r="O3" s="269"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="269"/>
+      <c r="T3" s="269"/>
+      <c r="U3" s="270"/>
+      <c r="V3" s="271" t="s">
         <v>234</v>
       </c>
-      <c r="W3" s="261"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="263">
+      <c r="W3" s="272"/>
+      <c r="X3" s="273"/>
+      <c r="Y3" s="274">
         <v>41961</v>
       </c>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="265"/>
-      <c r="AB3" s="266">
+      <c r="Z3" s="275"/>
+      <c r="AA3" s="276"/>
+      <c r="AB3" s="277">
         <v>41967</v>
       </c>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="265"/>
+      <c r="AC3" s="275"/>
+      <c r="AD3" s="276"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="282"/>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282" t="s">
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282" t="s">
+      <c r="G8" s="258"/>
+      <c r="H8" s="258" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="282"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282" t="s">
+      <c r="I8" s="258"/>
+      <c r="J8" s="258"/>
+      <c r="K8" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="282"/>
-      <c r="P8" s="282"/>
-      <c r="Q8" s="282"/>
-      <c r="R8" s="282"/>
-      <c r="S8" s="282"/>
-      <c r="T8" s="282"/>
-      <c r="U8" s="282"/>
-      <c r="V8" s="282"/>
-      <c r="W8" s="282"/>
-      <c r="X8" s="282" t="s">
+      <c r="L8" s="258"/>
+      <c r="M8" s="258"/>
+      <c r="N8" s="258"/>
+      <c r="O8" s="258"/>
+      <c r="P8" s="258"/>
+      <c r="Q8" s="258"/>
+      <c r="R8" s="258"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="258"/>
+      <c r="W8" s="258"/>
+      <c r="X8" s="258" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="282"/>
-      <c r="Z8" s="282"/>
-      <c r="AA8" s="282"/>
-      <c r="AB8" s="282"/>
-      <c r="AC8" s="282"/>
+      <c r="Y8" s="258"/>
+      <c r="Z8" s="258"/>
+      <c r="AA8" s="258"/>
+      <c r="AB8" s="258"/>
+      <c r="AC8" s="258"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="270">
+      <c r="B9" s="259">
         <v>41961</v>
       </c>
-      <c r="C9" s="271"/>
-      <c r="D9" s="271"/>
-      <c r="E9" s="272"/>
-      <c r="F9" s="273" t="s">
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="250" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="274"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="271"/>
-      <c r="J9" s="272"/>
-      <c r="K9" s="276"/>
-      <c r="L9" s="277"/>
-      <c r="M9" s="277"/>
-      <c r="N9" s="277"/>
-      <c r="O9" s="277"/>
-      <c r="P9" s="277"/>
-      <c r="Q9" s="277"/>
-      <c r="R9" s="277"/>
-      <c r="S9" s="277"/>
-      <c r="T9" s="277"/>
-      <c r="U9" s="277"/>
-      <c r="V9" s="277"/>
-      <c r="W9" s="278"/>
-      <c r="X9" s="279"/>
-      <c r="Y9" s="280"/>
-      <c r="Z9" s="280"/>
-      <c r="AA9" s="280"/>
-      <c r="AB9" s="280"/>
-      <c r="AC9" s="281"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="247"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
+      <c r="O9" s="253"/>
+      <c r="P9" s="253"/>
+      <c r="Q9" s="253"/>
+      <c r="R9" s="253"/>
+      <c r="S9" s="253"/>
+      <c r="T9" s="253"/>
+      <c r="U9" s="253"/>
+      <c r="V9" s="253"/>
+      <c r="W9" s="254"/>
+      <c r="X9" s="255"/>
+      <c r="Y9" s="256"/>
+      <c r="Z9" s="256"/>
+      <c r="AA9" s="256"/>
+      <c r="AB9" s="256"/>
+      <c r="AC9" s="257"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="275"/>
-      <c r="C10" s="271"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="272"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="271"/>
-      <c r="J10" s="272"/>
-      <c r="K10" s="276"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="277"/>
-      <c r="N10" s="277"/>
-      <c r="O10" s="277"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="277"/>
-      <c r="T10" s="277"/>
-      <c r="U10" s="277"/>
-      <c r="V10" s="277"/>
-      <c r="W10" s="278"/>
-      <c r="X10" s="279"/>
-      <c r="Y10" s="280"/>
-      <c r="Z10" s="280"/>
-      <c r="AA10" s="280"/>
-      <c r="AB10" s="280"/>
-      <c r="AC10" s="281"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="253"/>
+      <c r="O10" s="253"/>
+      <c r="P10" s="253"/>
+      <c r="Q10" s="253"/>
+      <c r="R10" s="253"/>
+      <c r="S10" s="253"/>
+      <c r="T10" s="253"/>
+      <c r="U10" s="253"/>
+      <c r="V10" s="253"/>
+      <c r="W10" s="254"/>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="256"/>
+      <c r="Z10" s="256"/>
+      <c r="AA10" s="256"/>
+      <c r="AB10" s="256"/>
+      <c r="AC10" s="257"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="275"/>
-      <c r="C11" s="271"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="274"/>
-      <c r="H11" s="275"/>
-      <c r="I11" s="271"/>
-      <c r="J11" s="272"/>
-      <c r="K11" s="276"/>
-      <c r="L11" s="277"/>
-      <c r="M11" s="277"/>
-      <c r="N11" s="277"/>
-      <c r="O11" s="277"/>
-      <c r="P11" s="277"/>
-      <c r="Q11" s="277"/>
-      <c r="R11" s="277"/>
-      <c r="S11" s="277"/>
-      <c r="T11" s="277"/>
-      <c r="U11" s="277"/>
-      <c r="V11" s="277"/>
-      <c r="W11" s="278"/>
-      <c r="X11" s="279"/>
-      <c r="Y11" s="280"/>
-      <c r="Z11" s="280"/>
-      <c r="AA11" s="280"/>
-      <c r="AB11" s="280"/>
-      <c r="AC11" s="281"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="248"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="253"/>
+      <c r="M11" s="253"/>
+      <c r="N11" s="253"/>
+      <c r="O11" s="253"/>
+      <c r="P11" s="253"/>
+      <c r="Q11" s="253"/>
+      <c r="R11" s="253"/>
+      <c r="S11" s="253"/>
+      <c r="T11" s="253"/>
+      <c r="U11" s="253"/>
+      <c r="V11" s="253"/>
+      <c r="W11" s="254"/>
+      <c r="X11" s="255"/>
+      <c r="Y11" s="256"/>
+      <c r="Z11" s="256"/>
+      <c r="AA11" s="256"/>
+      <c r="AB11" s="256"/>
+      <c r="AC11" s="257"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="275"/>
-      <c r="C12" s="271"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="274"/>
-      <c r="H12" s="275"/>
-      <c r="I12" s="271"/>
-      <c r="J12" s="272"/>
-      <c r="K12" s="276"/>
-      <c r="L12" s="277"/>
-      <c r="M12" s="277"/>
-      <c r="N12" s="277"/>
-      <c r="O12" s="277"/>
-      <c r="P12" s="277"/>
-      <c r="Q12" s="277"/>
-      <c r="R12" s="277"/>
-      <c r="S12" s="277"/>
-      <c r="T12" s="277"/>
-      <c r="U12" s="277"/>
-      <c r="V12" s="277"/>
-      <c r="W12" s="278"/>
-      <c r="X12" s="279"/>
-      <c r="Y12" s="280"/>
-      <c r="Z12" s="280"/>
-      <c r="AA12" s="280"/>
-      <c r="AB12" s="280"/>
-      <c r="AC12" s="281"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="249"/>
+      <c r="K12" s="252"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="253"/>
+      <c r="R12" s="253"/>
+      <c r="S12" s="253"/>
+      <c r="T12" s="253"/>
+      <c r="U12" s="253"/>
+      <c r="V12" s="253"/>
+      <c r="W12" s="254"/>
+      <c r="X12" s="255"/>
+      <c r="Y12" s="256"/>
+      <c r="Z12" s="256"/>
+      <c r="AA12" s="256"/>
+      <c r="AB12" s="256"/>
+      <c r="AC12" s="257"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23409,31 +23570,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23448,11 +23589,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23552,15 +23713,15 @@
       <c r="B4" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="308" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309"/>
-      <c r="H4" s="309"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="309"/>
       <c r="J4" s="152"/>
       <c r="K4" s="152"/>
       <c r="L4" s="152"/>
@@ -23573,13 +23734,13 @@
       <c r="B5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="301"/>
+      <c r="C5" s="308"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="152"/>
       <c r="K5" s="152"/>
       <c r="L5" s="152"/>
@@ -23613,15 +23774,15 @@
       <c r="B7" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="308" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="152"/>
       <c r="K7" s="152"/>
       <c r="L7" s="152"/>
@@ -23655,15 +23816,15 @@
       <c r="B9" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="152"/>
@@ -23726,19 +23887,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="314"/>
       <c r="M13" s="152"/>
       <c r="N13" s="152"/>
       <c r="O13" s="152"/>
@@ -23767,11 +23928,11 @@
       <c r="I14" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
       <c r="M14" s="152"/>
       <c r="N14" s="152"/>
       <c r="O14" s="152"/>
@@ -23796,11 +23957,11 @@
       <c r="I15" s="129" t="s">
         <v>436</v>
       </c>
-      <c r="J15" s="308" t="s">
+      <c r="J15" s="318" t="s">
         <v>364</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
       <c r="O15" s="152"/>
@@ -23945,11 +24106,11 @@
     </row>
     <row r="24" spans="1:15" s="176" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="177"/>
-      <c r="B24" s="313" t="s">
+      <c r="B24" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="313"/>
-      <c r="D24" s="313"/>
+      <c r="C24" s="322"/>
+      <c r="D24" s="322"/>
       <c r="E24" s="178"/>
       <c r="F24" s="179"/>
       <c r="G24" s="178"/>
@@ -23964,12 +24125,12 @@
     </row>
     <row r="25" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="172"/>
-      <c r="B25" s="305" t="s">
+      <c r="B25" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="306"/>
-      <c r="D25" s="306"/>
-      <c r="E25" s="307"/>
+      <c r="C25" s="316"/>
+      <c r="D25" s="316"/>
+      <c r="E25" s="317"/>
       <c r="F25" s="173" t="s">
         <v>124</v>
       </c>
@@ -24061,10 +24222,10 @@
       <c r="A28" s="152"/>
       <c r="B28" s="166"/>
       <c r="C28" s="170"/>
-      <c r="D28" s="300" t="s">
+      <c r="D28" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="301"/>
+      <c r="E28" s="309"/>
       <c r="F28" s="160" t="s">
         <v>323</v>
       </c>
@@ -24094,10 +24255,10 @@
       <c r="A29" s="152"/>
       <c r="B29" s="166"/>
       <c r="C29" s="161"/>
-      <c r="D29" s="300" t="s">
+      <c r="D29" s="308" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="301"/>
+      <c r="E29" s="309"/>
       <c r="F29" s="160" t="s">
         <v>170</v>
       </c>
@@ -24160,8 +24321,8 @@
       <c r="A31" s="152"/>
       <c r="B31" s="162"/>
       <c r="C31" s="161"/>
-      <c r="D31" s="300"/>
-      <c r="E31" s="301"/>
+      <c r="D31" s="308"/>
+      <c r="E31" s="309"/>
       <c r="F31" s="160"/>
       <c r="G31" s="159"/>
       <c r="H31" s="159"/>
@@ -24483,11 +24644,11 @@
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="152"/>
-      <c r="B50" s="310" t="s">
+      <c r="B50" s="319" t="s">
         <v>326</v>
       </c>
-      <c r="C50" s="310"/>
-      <c r="D50" s="310"/>
+      <c r="C50" s="319"/>
+      <c r="D50" s="319"/>
       <c r="E50" s="152"/>
       <c r="F50" s="152"/>
       <c r="G50" s="152"/>
@@ -24504,12 +24665,12 @@
     </row>
     <row r="51" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="172"/>
-      <c r="B51" s="305" t="s">
+      <c r="B51" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="306"/>
-      <c r="D51" s="306"/>
-      <c r="E51" s="307"/>
+      <c r="C51" s="316"/>
+      <c r="D51" s="316"/>
+      <c r="E51" s="317"/>
       <c r="F51" s="173" t="s">
         <v>124</v>
       </c>
@@ -24601,10 +24762,10 @@
       <c r="A54" s="152"/>
       <c r="B54" s="166"/>
       <c r="C54" s="170"/>
-      <c r="D54" s="300" t="s">
+      <c r="D54" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="301"/>
+      <c r="E54" s="309"/>
       <c r="F54" s="160" t="s">
         <v>323</v>
       </c>
@@ -24634,10 +24795,10 @@
       <c r="A55" s="152"/>
       <c r="B55" s="166"/>
       <c r="C55" s="170"/>
-      <c r="D55" s="300" t="s">
+      <c r="D55" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="301"/>
+      <c r="E55" s="309"/>
       <c r="F55" s="160" t="s">
         <v>186</v>
       </c>
@@ -24667,10 +24828,10 @@
       <c r="A56" s="152"/>
       <c r="B56" s="166"/>
       <c r="C56" s="170"/>
-      <c r="D56" s="314" t="s">
+      <c r="D56" s="323" t="s">
         <v>191</v>
       </c>
-      <c r="E56" s="301"/>
+      <c r="E56" s="309"/>
       <c r="F56" s="160" t="s">
         <v>189</v>
       </c>
@@ -24764,8 +24925,8 @@
       <c r="A59" s="152"/>
       <c r="B59" s="162"/>
       <c r="C59" s="161"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="301"/>
+      <c r="D59" s="308"/>
+      <c r="E59" s="309"/>
       <c r="F59" s="160"/>
       <c r="G59" s="159"/>
       <c r="H59" s="159"/>
@@ -25155,6 +25316,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="D28:E28"/>
@@ -25166,13 +25334,6 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -25269,15 +25430,15 @@
       <c r="B4" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="308" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309"/>
-      <c r="H4" s="309"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="309"/>
       <c r="J4" s="152"/>
       <c r="K4" s="152"/>
       <c r="L4" s="152"/>
@@ -25290,15 +25451,15 @@
       <c r="B5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="308" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="152"/>
       <c r="K5" s="152"/>
       <c r="L5" s="152"/>
@@ -25332,15 +25493,15 @@
       <c r="B7" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="308" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="152"/>
       <c r="K7" s="152"/>
       <c r="L7" s="152"/>
@@ -25374,15 +25535,15 @@
       <c r="B9" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="152"/>
@@ -25445,19 +25606,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="314"/>
       <c r="M13" s="152"/>
       <c r="N13" s="152"/>
       <c r="O13" s="152"/>
@@ -25486,11 +25647,11 @@
       <c r="I14" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
       <c r="M14" s="152"/>
       <c r="N14" s="152"/>
       <c r="O14" s="152"/>
@@ -25515,11 +25676,11 @@
       <c r="I15" s="194" t="s">
         <v>376</v>
       </c>
-      <c r="J15" s="315" t="s">
+      <c r="J15" s="324" t="s">
         <v>375</v>
       </c>
-      <c r="K15" s="315"/>
-      <c r="L15" s="315"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
       <c r="O15" s="152"/>
@@ -25681,11 +25842,11 @@
     </row>
     <row r="25" spans="1:15" s="176" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="177"/>
-      <c r="B25" s="313" t="s">
+      <c r="B25" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="313"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="322"/>
       <c r="E25" s="178"/>
       <c r="F25" s="179"/>
       <c r="G25" s="178"/>
@@ -25700,12 +25861,12 @@
     </row>
     <row r="26" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="172"/>
-      <c r="B26" s="305" t="s">
+      <c r="B26" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="306"/>
-      <c r="D26" s="306"/>
-      <c r="E26" s="307"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
+      <c r="E26" s="317"/>
       <c r="F26" s="173" t="s">
         <v>124</v>
       </c>
@@ -25797,10 +25958,10 @@
       <c r="A29" s="152"/>
       <c r="B29" s="166"/>
       <c r="C29" s="170"/>
-      <c r="D29" s="300" t="s">
+      <c r="D29" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="301"/>
+      <c r="E29" s="309"/>
       <c r="F29" s="160" t="s">
         <v>323</v>
       </c>
@@ -25830,10 +25991,10 @@
       <c r="A30" s="152"/>
       <c r="B30" s="166"/>
       <c r="C30" s="161"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="308" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="309"/>
       <c r="F30" s="160" t="s">
         <v>170</v>
       </c>
@@ -25896,10 +26057,10 @@
       <c r="A32" s="152"/>
       <c r="B32" s="166"/>
       <c r="C32" s="169"/>
-      <c r="D32" s="300" t="s">
+      <c r="D32" s="308" t="s">
         <v>344</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="309"/>
       <c r="F32" s="160" t="s">
         <v>172</v>
       </c>
@@ -25929,10 +26090,10 @@
       <c r="A33" s="152"/>
       <c r="B33" s="166"/>
       <c r="C33" s="169"/>
-      <c r="D33" s="311" t="s">
+      <c r="D33" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="E33" s="312"/>
+      <c r="E33" s="321"/>
       <c r="F33" s="160" t="s">
         <v>340</v>
       </c>
@@ -25962,10 +26123,10 @@
       <c r="A34" s="152"/>
       <c r="B34" s="166"/>
       <c r="C34" s="170"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="308" t="s">
         <v>338</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="309"/>
       <c r="F34" s="160" t="s">
         <v>337</v>
       </c>
@@ -27025,11 +27186,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
@@ -27039,6 +27195,11 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27733,15 +27894,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27754,15 +27915,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27796,15 +27957,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="316" t="s">
+      <c r="C7" s="334" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27838,15 +27999,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27909,19 +28070,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27950,11 +28111,11 @@
       <c r="I14" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27979,11 +28140,11 @@
       <c r="I15" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -28012,9 +28173,9 @@
       <c r="I16" s="129" t="s">
         <v>282</v>
       </c>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28205,11 +28366,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="329"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -28224,12 +28385,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="323"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="330"/>
       <c r="F28" s="115" t="s">
         <v>124</v>
       </c>
@@ -28321,10 +28482,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>138</v>
       </c>
@@ -28354,10 +28515,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="317"/>
+      <c r="E32" s="333"/>
       <c r="F32" s="74" t="s">
         <v>170</v>
       </c>
@@ -28420,10 +28581,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="318" t="s">
+      <c r="D34" s="331" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="317"/>
+      <c r="E34" s="333"/>
       <c r="F34" s="105" t="s">
         <v>268</v>
       </c>
@@ -28453,10 +28614,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="319" t="s">
+      <c r="D35" s="339" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="320"/>
+      <c r="E35" s="340"/>
       <c r="F35" s="105" t="s">
         <v>279</v>
       </c>
@@ -28846,11 +29007,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="321" t="s">
+      <c r="B56" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="321"/>
-      <c r="D56" s="321"/>
+      <c r="C56" s="341"/>
+      <c r="D56" s="341"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -28867,12 +29028,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="322" t="s">
+      <c r="B57" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="323"/>
-      <c r="D57" s="323"/>
-      <c r="E57" s="324"/>
+      <c r="C57" s="329"/>
+      <c r="D57" s="329"/>
+      <c r="E57" s="330"/>
       <c r="F57" s="115" t="s">
         <v>124</v>
       </c>
@@ -28964,10 +29125,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="318" t="s">
+      <c r="D60" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="317"/>
+      <c r="E60" s="333"/>
       <c r="F60" s="74" t="s">
         <v>138</v>
       </c>
@@ -28997,10 +29158,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="318" t="s">
+      <c r="D61" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="325"/>
+      <c r="E61" s="342"/>
       <c r="F61" s="105" t="s">
         <v>186</v>
       </c>
@@ -29030,10 +29191,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="326" t="s">
+      <c r="D62" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="325"/>
+      <c r="E62" s="342"/>
       <c r="F62" s="105" t="s">
         <v>189</v>
       </c>
@@ -29127,8 +29288,8 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
-      <c r="D65" s="316"/>
-      <c r="E65" s="317"/>
+      <c r="D65" s="334"/>
+      <c r="E65" s="333"/>
       <c r="F65" s="74"/>
       <c r="G65" s="76"/>
       <c r="H65" s="76"/>
@@ -29518,6 +29679,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
@@ -29528,16 +29699,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -29635,15 +29796,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29656,15 +29817,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29698,15 +29859,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29740,15 +29901,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29811,19 +29972,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29852,11 +30013,11 @@
       <c r="I14" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29881,11 +30042,11 @@
       <c r="I15" s="129" t="s">
         <v>271</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>292</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29910,9 +30071,9 @@
       <c r="I16" s="130" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="327"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="J16" s="325"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -30074,11 +30235,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="329"/>
-      <c r="D26" s="329"/>
+      <c r="C26" s="327"/>
+      <c r="D26" s="327"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -30093,12 +30254,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="322" t="s">
+      <c r="B27" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="323"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="324"/>
+      <c r="C27" s="329"/>
+      <c r="D27" s="329"/>
+      <c r="E27" s="330"/>
       <c r="F27" s="115" t="s">
         <v>124</v>
       </c>
@@ -30190,10 +30351,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="317"/>
+      <c r="E30" s="333"/>
       <c r="F30" s="74" t="s">
         <v>138</v>
       </c>
@@ -30223,10 +30384,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>170</v>
       </c>
@@ -30289,10 +30450,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="318" t="s">
+      <c r="D33" s="331" t="s">
         <v>278</v>
       </c>
-      <c r="E33" s="317"/>
+      <c r="E33" s="333"/>
       <c r="F33" s="105" t="s">
         <v>279</v>
       </c>
@@ -30322,10 +30483,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="318" t="s">
+      <c r="D34" s="331" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="317"/>
+      <c r="E34" s="333"/>
       <c r="F34" s="105" t="s">
         <v>268</v>
       </c>
@@ -30409,10 +30570,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="336" t="s">
+      <c r="D37" s="345" t="s">
         <v>473</v>
       </c>
-      <c r="E37" s="337"/>
+      <c r="E37" s="346"/>
       <c r="F37" s="138" t="s">
         <v>299</v>
       </c>
@@ -30744,11 +30905,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="321" t="s">
+      <c r="B56" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="321"/>
-      <c r="D56" s="321"/>
+      <c r="C56" s="341"/>
+      <c r="D56" s="341"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -30765,12 +30926,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="322" t="s">
+      <c r="B57" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="323"/>
-      <c r="D57" s="323"/>
-      <c r="E57" s="324"/>
+      <c r="C57" s="329"/>
+      <c r="D57" s="329"/>
+      <c r="E57" s="330"/>
       <c r="F57" s="115" t="s">
         <v>124</v>
       </c>
@@ -30862,10 +31023,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="318" t="s">
+      <c r="D60" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="317"/>
+      <c r="E60" s="333"/>
       <c r="F60" s="74" t="s">
         <v>138</v>
       </c>
@@ -30895,10 +31056,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="318" t="s">
+      <c r="D61" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="325"/>
+      <c r="E61" s="342"/>
       <c r="F61" s="105" t="s">
         <v>186</v>
       </c>
@@ -30928,10 +31089,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="326" t="s">
+      <c r="D62" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="325"/>
+      <c r="E62" s="342"/>
       <c r="F62" s="105" t="s">
         <v>189</v>
       </c>
@@ -30996,8 +31157,8 @@
       <c r="C64" s="224" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="335"/>
-      <c r="E64" s="335"/>
+      <c r="D64" s="344"/>
+      <c r="E64" s="344"/>
       <c r="F64" s="74" t="s">
         <v>165</v>
       </c>
@@ -31382,16 +31543,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D60:E60"/>
@@ -31403,6 +31554,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B56:D56"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31500,15 +31661,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31521,15 +31682,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31563,15 +31724,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31605,15 +31766,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31676,19 +31837,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31717,11 +31878,11 @@
       <c r="I14" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31746,11 +31907,11 @@
       <c r="I15" s="129" t="s">
         <v>271</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>297</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31775,9 +31936,9 @@
       <c r="I16" s="130" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="327"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="J16" s="325"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -31939,11 +32100,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="329"/>
-      <c r="D26" s="329"/>
+      <c r="C26" s="327"/>
+      <c r="D26" s="327"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -31958,12 +32119,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="322" t="s">
+      <c r="B27" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="323"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="324"/>
+      <c r="C27" s="329"/>
+      <c r="D27" s="329"/>
+      <c r="E27" s="330"/>
       <c r="F27" s="115" t="s">
         <v>124</v>
       </c>
@@ -32055,10 +32216,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="317"/>
+      <c r="E30" s="333"/>
       <c r="F30" s="74" t="s">
         <v>138</v>
       </c>
@@ -32088,10 +32249,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>170</v>
       </c>
@@ -32154,10 +32315,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="318" t="s">
+      <c r="D33" s="331" t="s">
         <v>278</v>
       </c>
-      <c r="E33" s="317"/>
+      <c r="E33" s="333"/>
       <c r="F33" s="105" t="s">
         <v>279</v>
       </c>
@@ -32187,10 +32348,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="318" t="s">
+      <c r="D34" s="331" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="317"/>
+      <c r="E34" s="333"/>
       <c r="F34" s="105" t="s">
         <v>268</v>
       </c>
@@ -32274,10 +32435,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="336" t="s">
+      <c r="D37" s="345" t="s">
         <v>473</v>
       </c>
-      <c r="E37" s="337"/>
+      <c r="E37" s="346"/>
       <c r="F37" s="136" t="s">
         <v>299</v>
       </c>
@@ -32609,11 +32770,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="321" t="s">
+      <c r="B56" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="321"/>
-      <c r="D56" s="321"/>
+      <c r="C56" s="341"/>
+      <c r="D56" s="341"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -32630,12 +32791,12 @@
     </row>
     <row r="57" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="83"/>
-      <c r="B57" s="322" t="s">
+      <c r="B57" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="323"/>
-      <c r="D57" s="323"/>
-      <c r="E57" s="324"/>
+      <c r="C57" s="329"/>
+      <c r="D57" s="329"/>
+      <c r="E57" s="330"/>
       <c r="F57" s="149" t="s">
         <v>124</v>
       </c>
@@ -32727,10 +32888,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="318" t="s">
+      <c r="D60" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="317"/>
+      <c r="E60" s="333"/>
       <c r="F60" s="74" t="s">
         <v>138</v>
       </c>
@@ -32760,10 +32921,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="85"/>
       <c r="C61" s="90"/>
-      <c r="D61" s="318" t="s">
+      <c r="D61" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="325"/>
+      <c r="E61" s="342"/>
       <c r="F61" s="105" t="s">
         <v>186</v>
       </c>
@@ -32793,10 +32954,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="326" t="s">
+      <c r="D62" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="325"/>
+      <c r="E62" s="342"/>
       <c r="F62" s="105" t="s">
         <v>189</v>
       </c>
@@ -32861,8 +33022,8 @@
       <c r="C64" s="224" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="335"/>
-      <c r="E64" s="335"/>
+      <c r="D64" s="344"/>
+      <c r="E64" s="344"/>
       <c r="F64" s="74" t="s">
         <v>165</v>
       </c>
@@ -33221,6 +33382,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
@@ -33234,14 +33403,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -33339,15 +33500,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33360,15 +33521,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33402,15 +33563,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33444,15 +33605,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33515,19 +33676,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33556,11 +33717,11 @@
       <c r="I14" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33585,11 +33746,11 @@
       <c r="I15" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>311</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -33614,9 +33775,9 @@
       <c r="I16" s="129" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -33834,11 +33995,11 @@
     </row>
     <row r="28" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69"/>
-      <c r="B28" s="329" t="s">
+      <c r="B28" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="329"/>
-      <c r="D28" s="329"/>
+      <c r="C28" s="327"/>
+      <c r="D28" s="327"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
       <c r="G28" s="80"/>
@@ -33853,12 +34014,12 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="83"/>
-      <c r="B29" s="322" t="s">
+      <c r="B29" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="323"/>
-      <c r="D29" s="323"/>
-      <c r="E29" s="324"/>
+      <c r="C29" s="329"/>
+      <c r="D29" s="329"/>
+      <c r="E29" s="330"/>
       <c r="F29" s="115" t="s">
         <v>124</v>
       </c>
@@ -33950,10 +34111,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="317"/>
+      <c r="E32" s="333"/>
       <c r="F32" s="74" t="s">
         <v>138</v>
       </c>
@@ -33983,10 +34144,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="316" t="s">
+      <c r="D33" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="317"/>
+      <c r="E33" s="333"/>
       <c r="F33" s="74" t="s">
         <v>170</v>
       </c>
@@ -34049,10 +34210,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="318" t="s">
+      <c r="D35" s="331" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="317"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="105" t="s">
         <v>268</v>
       </c>
@@ -34082,10 +34243,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="339" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="340"/>
       <c r="F36" s="105" t="s">
         <v>279</v>
       </c>
@@ -34173,10 +34334,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="92"/>
-      <c r="D39" s="336" t="s">
+      <c r="D39" s="345" t="s">
         <v>280</v>
       </c>
-      <c r="E39" s="337"/>
+      <c r="E39" s="346"/>
       <c r="F39" s="136" t="s">
         <v>281</v>
       </c>
@@ -34508,11 +34669,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="321" t="s">
+      <c r="B58" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="321"/>
-      <c r="D58" s="321"/>
+      <c r="C58" s="341"/>
+      <c r="D58" s="341"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -34529,12 +34690,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="322" t="s">
+      <c r="B59" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="323"/>
-      <c r="D59" s="323"/>
-      <c r="E59" s="324"/>
+      <c r="C59" s="329"/>
+      <c r="D59" s="329"/>
+      <c r="E59" s="330"/>
       <c r="F59" s="115" t="s">
         <v>124</v>
       </c>
@@ -34626,10 +34787,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="318" t="s">
+      <c r="D62" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="317"/>
+      <c r="E62" s="333"/>
       <c r="F62" s="74" t="s">
         <v>138</v>
       </c>
@@ -34659,10 +34820,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="318" t="s">
+      <c r="D63" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="325"/>
+      <c r="E63" s="342"/>
       <c r="F63" s="105" t="s">
         <v>186</v>
       </c>
@@ -34692,10 +34853,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="326" t="s">
+      <c r="D64" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="325"/>
+      <c r="E64" s="342"/>
       <c r="F64" s="105" t="s">
         <v>189</v>
       </c>
@@ -35076,6 +35237,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -35089,13 +35257,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -35193,15 +35354,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35214,15 +35375,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35256,15 +35417,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35298,15 +35459,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35369,19 +35530,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -35410,11 +35571,11 @@
       <c r="I14" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -35439,11 +35600,11 @@
       <c r="I15" s="129" t="s">
         <v>271</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>321</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -35468,9 +35629,9 @@
       <c r="I16" s="130" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="327"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="J16" s="325"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -35632,11 +35793,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="329"/>
-      <c r="D26" s="329"/>
+      <c r="C26" s="327"/>
+      <c r="D26" s="327"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -35651,12 +35812,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="322" t="s">
+      <c r="B27" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="323"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="324"/>
+      <c r="C27" s="329"/>
+      <c r="D27" s="329"/>
+      <c r="E27" s="330"/>
       <c r="F27" s="115" t="s">
         <v>124</v>
       </c>
@@ -35748,10 +35909,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="317"/>
+      <c r="E30" s="333"/>
       <c r="F30" s="74" t="s">
         <v>138</v>
       </c>
@@ -35781,10 +35942,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>170</v>
       </c>
@@ -35847,8 +36008,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="316"/>
-      <c r="E33" s="317"/>
+      <c r="D33" s="334"/>
+      <c r="E33" s="333"/>
       <c r="F33" s="74"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -36170,11 +36331,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="321" t="s">
+      <c r="B52" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="321"/>
-      <c r="D52" s="321"/>
+      <c r="C52" s="341"/>
+      <c r="D52" s="341"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -36191,12 +36352,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="322" t="s">
+      <c r="B53" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="323"/>
-      <c r="D53" s="323"/>
-      <c r="E53" s="324"/>
+      <c r="C53" s="329"/>
+      <c r="D53" s="329"/>
+      <c r="E53" s="330"/>
       <c r="F53" s="115" t="s">
         <v>124</v>
       </c>
@@ -36288,10 +36449,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="318" t="s">
+      <c r="D56" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="317"/>
+      <c r="E56" s="333"/>
       <c r="F56" s="74" t="s">
         <v>138</v>
       </c>
@@ -36321,10 +36482,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="318" t="s">
+      <c r="D57" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="325"/>
+      <c r="E57" s="342"/>
       <c r="F57" s="105" t="s">
         <v>186</v>
       </c>
@@ -36354,10 +36515,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="326" t="s">
+      <c r="D58" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="325"/>
+      <c r="E58" s="342"/>
       <c r="F58" s="105" t="s">
         <v>189</v>
       </c>
@@ -36817,6 +36978,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -36829,12 +36996,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -36849,7 +37010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -36932,15 +37093,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -36953,15 +37114,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -36995,15 +37156,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37037,15 +37198,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37108,19 +37269,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -37149,11 +37310,11 @@
       <c r="I14" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -37168,9 +37329,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="129"/>
-      <c r="J15" s="327"/>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="J15" s="325"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -37185,9 +37346,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="129"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -37366,11 +37527,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="329"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -37385,12 +37546,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="323"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="330"/>
       <c r="F28" s="115" t="s">
         <v>124</v>
       </c>
@@ -37482,10 +37643,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>138</v>
       </c>
@@ -37515,10 +37676,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="317"/>
+      <c r="E32" s="333"/>
       <c r="F32" s="74" t="s">
         <v>170</v>
       </c>
@@ -37581,10 +37742,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="318" t="s">
+      <c r="D34" s="331" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="317"/>
+      <c r="E34" s="333"/>
       <c r="F34" s="105" t="s">
         <v>268</v>
       </c>
@@ -37613,11 +37774,11 @@
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
-      <c r="C35" s="339"/>
-      <c r="D35" s="319" t="s">
+      <c r="C35" s="245"/>
+      <c r="D35" s="339" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="320"/>
+      <c r="E35" s="340"/>
       <c r="F35" s="105" t="s">
         <v>279</v>
       </c>
@@ -37965,11 +38126,11 @@
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="321" t="s">
+      <c r="B56" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="321"/>
-      <c r="D56" s="321"/>
+      <c r="C56" s="341"/>
+      <c r="D56" s="341"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -37986,12 +38147,12 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="322" t="s">
+      <c r="B57" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="323"/>
-      <c r="D57" s="323"/>
-      <c r="E57" s="324"/>
+      <c r="C57" s="329"/>
+      <c r="D57" s="329"/>
+      <c r="E57" s="330"/>
       <c r="F57" s="115" t="s">
         <v>124</v>
       </c>
@@ -38603,6 +38764,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:E57"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -38615,10 +38780,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38629,8 +38790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -38712,15 +38873,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -38733,13 +38894,13 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -38773,15 +38934,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -38815,15 +38976,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -38886,19 +39047,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -38927,18 +39088,18 @@
       <c r="I14" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="66"/>
-      <c r="B15" s="73"/>
+      <c r="B15" s="230"/>
       <c r="C15" s="105" t="s">
         <v>267</v>
       </c>
@@ -38956,45 +39117,47 @@
       <c r="I15" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>305</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="66"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="66"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="114"/>
+      <c r="B17" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -39002,8 +39165,8 @@
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="77"/>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
@@ -39018,9 +39181,7 @@
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="66"/>
-      <c r="B19" s="71" t="s">
-        <v>175</v>
-      </c>
+      <c r="B19" s="77"/>
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
       <c r="E19" s="77"/>
@@ -39120,111 +39281,139 @@
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-    </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-    </row>
-    <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="329" t="s">
+    <row r="25" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="329"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-    </row>
-    <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="83"/>
-      <c r="B28" s="322" t="s">
+      <c r="C25" s="327"/>
+      <c r="D25" s="327"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="83"/>
+      <c r="B26" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="323"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
-      <c r="F28" s="115" t="s">
+      <c r="C26" s="329"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="115" t="s">
+      <c r="G26" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="115" t="s">
+      <c r="H26" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="115" t="s">
+      <c r="I26" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="115" t="s">
+      <c r="J26" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="K28" s="115" t="s">
+      <c r="K26" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="L28" s="115" t="s">
+      <c r="L26" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+    </row>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="66"/>
+      <c r="B27" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="75"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+    </row>
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="89"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="76">
+        <v>1</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="75"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="76" t="s">
-        <v>135</v>
+      <c r="B29" s="85"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="334" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="333"/>
+      <c r="F29" s="74" t="s">
+        <v>138</v>
       </c>
       <c r="G29" s="76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H29" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="76" t="s">
-        <v>135</v>
+        <v>163</v>
+      </c>
+      <c r="I29" s="76">
+        <v>1</v>
       </c>
       <c r="J29" s="76" t="s">
         <v>135</v>
@@ -39232,7 +39421,9 @@
       <c r="K29" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="L29" s="75"/>
+      <c r="L29" s="116">
+        <v>200</v>
+      </c>
       <c r="M29" s="66"/>
       <c r="N29" s="66"/>
       <c r="O29" s="66"/>
@@ -39240,19 +39431,19 @@
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
-      <c r="C30" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="87"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="334" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="333"/>
       <c r="F30" s="74" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G30" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="76" t="s">
         <v>135</v>
-      </c>
-      <c r="H30" s="76" t="s">
-        <v>163</v>
       </c>
       <c r="I30" s="76">
         <v>1</v>
@@ -39261,9 +39452,11 @@
         <v>135</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="L30" s="75"/>
+        <v>131</v>
+      </c>
+      <c r="L30" s="75" t="s">
+        <v>171</v>
+      </c>
       <c r="M30" s="66"/>
       <c r="N30" s="66"/>
       <c r="O30" s="66"/>
@@ -39271,22 +39464,22 @@
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="317"/>
+      <c r="C31" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="89"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="74" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H31" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="76">
-        <v>1</v>
+      <c r="I31" s="106" t="s">
+        <v>190</v>
       </c>
       <c r="J31" s="76" t="s">
         <v>135</v>
@@ -39294,8 +39487,8 @@
       <c r="K31" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="L31" s="116">
-        <v>200</v>
+      <c r="L31" s="75" t="s">
+        <v>174</v>
       </c>
       <c r="M31" s="66"/>
       <c r="N31" s="66"/>
@@ -39304,31 +39497,27 @@
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="317"/>
-      <c r="F32" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="76" t="s">
-        <v>134</v>
+      <c r="C32" s="95"/>
+      <c r="D32" s="331" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="342"/>
+      <c r="F32" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>132</v>
       </c>
       <c r="H32" s="76" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="I32" s="76">
         <v>1</v>
       </c>
-      <c r="J32" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="K32" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="L32" s="75" t="s">
-        <v>171</v>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="107" t="s">
+        <v>306</v>
       </c>
       <c r="M32" s="66"/>
       <c r="N32" s="66"/>
@@ -39337,31 +39526,31 @@
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
-      <c r="C33" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="74" t="s">
-        <v>165</v>
+      <c r="C33" s="95"/>
+      <c r="D33" s="331" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="333"/>
+      <c r="F33" s="105" t="s">
+        <v>268</v>
       </c>
       <c r="G33" s="76" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H33" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="106" t="s">
-        <v>190</v>
+      <c r="I33" s="76">
+        <v>1</v>
       </c>
       <c r="J33" s="76" t="s">
         <v>135</v>
       </c>
       <c r="K33" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="L33" s="75" t="s">
-        <v>174</v>
+        <v>131</v>
+      </c>
+      <c r="L33" s="107" t="s">
+        <v>302</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -39371,15 +39560,15 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="318" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="325"/>
+      <c r="D34" s="339" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="340"/>
       <c r="F34" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="106" t="s">
-        <v>132</v>
+        <v>279</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>158</v>
       </c>
       <c r="H34" s="76" t="s">
         <v>163</v>
@@ -39387,10 +39576,14 @@
       <c r="I34" s="76">
         <v>1</v>
       </c>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
+      <c r="J34" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="76" t="s">
+        <v>131</v>
+      </c>
       <c r="L34" s="107" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -39400,15 +39593,15 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="318" t="s">
-        <v>285</v>
-      </c>
-      <c r="E35" s="317"/>
+      <c r="D35" s="240" t="s">
+        <v>465</v>
+      </c>
+      <c r="E35" s="239"/>
       <c r="F35" s="105" t="s">
-        <v>268</v>
-      </c>
-      <c r="G35" s="76" t="s">
-        <v>140</v>
+        <v>464</v>
+      </c>
+      <c r="G35" s="244" t="s">
+        <v>132</v>
       </c>
       <c r="H35" s="76" t="s">
         <v>163</v>
@@ -39416,32 +39609,26 @@
       <c r="I35" s="76">
         <v>1</v>
       </c>
-      <c r="J35" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="L35" s="107" t="s">
-        <v>302</v>
-      </c>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="107"/>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
       <c r="O35" s="66"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
-        <v>278</v>
-      </c>
-      <c r="E36" s="320"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="339" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="340"/>
       <c r="F36" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="G36" s="76" t="s">
-        <v>158</v>
+        <v>318</v>
+      </c>
+      <c r="G36" s="244" t="s">
+        <v>132</v>
       </c>
       <c r="H36" s="76" t="s">
         <v>163</v>
@@ -39455,9 +39642,7 @@
       <c r="K36" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="107" t="s">
-        <v>287</v>
-      </c>
+      <c r="L36" s="107"/>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
       <c r="O36" s="66"/>
@@ -39772,20 +39957,6 @@
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="321" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="321"/>
-      <c r="D55" s="321"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="K55" s="66"/>
       <c r="L55" s="66"/>
       <c r="M55" s="66"/>
       <c r="N55" s="66"/>
@@ -39793,193 +39964,76 @@
     </row>
     <row r="56" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="83"/>
-      <c r="B56" s="322" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="323"/>
-      <c r="D56" s="323"/>
-      <c r="E56" s="324"/>
-      <c r="F56" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="G56" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="H56" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="J56" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="K56" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="L56" s="115" t="s">
-        <v>0</v>
-      </c>
       <c r="M56" s="83"/>
       <c r="N56" s="83"/>
       <c r="O56" s="83"/>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="H57" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="J57" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="K57" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="L57" s="75"/>
       <c r="M57" s="66"/>
       <c r="N57" s="66"/>
       <c r="O57" s="66"/>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="H58" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58" s="76">
-        <v>1</v>
-      </c>
-      <c r="J58" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="K58" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="L58" s="75"/>
       <c r="M58" s="66"/>
       <c r="N58" s="66"/>
       <c r="O58" s="66"/>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="318" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" s="317"/>
-      <c r="F59" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="I59" s="76">
-        <v>1</v>
-      </c>
-      <c r="J59" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="K59" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="L59" s="107" t="s">
-        <v>188</v>
-      </c>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
       <c r="O59" s="66"/>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="325"/>
-      <c r="F60" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="G60" s="106" t="s">
-        <v>158</v>
-      </c>
-      <c r="H60" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="I60" s="76">
-        <v>1</v>
-      </c>
-      <c r="J60" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="K60" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="L60" s="107" t="s">
-        <v>187</v>
-      </c>
+      <c r="B60" s="341" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="341"/>
+      <c r="D60" s="341"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" s="66"/>
       <c r="M60" s="66"/>
       <c r="N60" s="66"/>
       <c r="O60" s="66"/>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="66"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="326" t="s">
-        <v>191</v>
-      </c>
-      <c r="E61" s="325"/>
-      <c r="F61" s="105" t="s">
-        <v>189</v>
-      </c>
-      <c r="G61" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="H61" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="I61" s="76">
-        <v>1</v>
-      </c>
-      <c r="J61" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="K61" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="L61" s="107" t="s">
-        <v>194</v>
+      <c r="B61" s="328" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="329"/>
+      <c r="D61" s="329"/>
+      <c r="E61" s="330"/>
+      <c r="F61" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="J61" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="K61" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="115" t="s">
+        <v>0</v>
       </c>
       <c r="M61" s="66"/>
       <c r="N61" s="66"/>
@@ -39987,33 +40041,31 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="G62" s="106" t="s">
-        <v>158</v>
+      <c r="B62" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="76" t="s">
+        <v>135</v>
       </c>
       <c r="H62" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="I62" s="106">
-        <v>1</v>
-      </c>
-      <c r="J62" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="K62" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="L62" s="107" t="s">
-        <v>193</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="I62" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="J62" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K62" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="L62" s="75"/>
       <c r="M62" s="66"/>
       <c r="N62" s="66"/>
       <c r="O62" s="66"/>
@@ -40022,12 +40074,12 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="89"/>
       <c r="E63" s="87"/>
       <c r="F63" s="74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G63" s="76" t="s">
         <v>135</v>
@@ -40051,120 +40103,196 @@
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="316"/>
-      <c r="E64" s="317"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="75"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="331" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="333"/>
+      <c r="F64" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="I64" s="76">
+        <v>1</v>
+      </c>
+      <c r="J64" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="L64" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
       <c r="O64" s="66"/>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="66"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="93"/>
-      <c r="J65" s="93"/>
-      <c r="K65" s="93"/>
-      <c r="L65" s="77"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="240" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="241"/>
+      <c r="F65" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" s="244" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" s="76">
+        <v>1</v>
+      </c>
+      <c r="J65" s="244" t="s">
+        <v>131</v>
+      </c>
+      <c r="K65" s="244" t="s">
+        <v>131</v>
+      </c>
+      <c r="L65" s="107" t="s">
+        <v>187</v>
+      </c>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
       <c r="O65" s="66"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="66"/>
-      <c r="B66" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="242" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="241"/>
+      <c r="F66" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="G66" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="I66" s="76">
+        <v>1</v>
+      </c>
+      <c r="J66" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K66" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="L66" s="107" t="s">
+        <v>194</v>
+      </c>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
       <c r="O66" s="66"/>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="243" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" s="244" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67" s="244">
+        <v>1</v>
+      </c>
+      <c r="J67" s="244" t="s">
+        <v>131</v>
+      </c>
+      <c r="K67" s="244" t="s">
+        <v>131</v>
+      </c>
+      <c r="L67" s="107" t="s">
+        <v>193</v>
+      </c>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
       <c r="O67" s="66"/>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="89"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="H68" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="I68" s="76">
+        <v>1</v>
+      </c>
+      <c r="J68" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K68" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="L68" s="75"/>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
       <c r="O68" s="66"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="238"/>
+      <c r="E69" s="239"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="75"/>
       <c r="M69" s="66"/>
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="209"/>
+      <c r="H70" s="209"/>
+      <c r="I70" s="209"/>
+      <c r="J70" s="209"/>
+      <c r="K70" s="209"/>
       <c r="L70" s="66"/>
       <c r="M70" s="66"/>
       <c r="N70" s="66"/>
@@ -40172,7 +40300,9 @@
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
+      <c r="B71" s="71" t="s">
+        <v>176</v>
+      </c>
       <c r="C71" s="66"/>
       <c r="D71" s="66"/>
       <c r="E71" s="66"/>
@@ -40427,24 +40557,31 @@
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="94"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
-      <c r="H86" s="94"/>
-      <c r="I86" s="94"/>
-      <c r="J86" s="94"/>
-      <c r="K86" s="94"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
       <c r="L86" s="94"/>
       <c r="M86" s="94"/>
       <c r="N86" s="94"/>
       <c r="O86" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="18">
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
@@ -40452,19 +40589,9 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -40993,15 +41120,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41014,15 +41141,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>382</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41056,15 +41183,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="316" t="s">
+      <c r="C7" s="334" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41098,15 +41225,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41169,19 +41296,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41210,11 +41337,11 @@
       <c r="I14" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41239,11 +41366,11 @@
       <c r="I15" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -41268,9 +41395,9 @@
       <c r="I16" s="129" t="s">
         <v>385</v>
       </c>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -41461,11 +41588,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="329"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -41480,12 +41607,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="323"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="330"/>
       <c r="F28" s="149" t="s">
         <v>124</v>
       </c>
@@ -41577,10 +41704,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>138</v>
       </c>
@@ -41610,10 +41737,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="317"/>
+      <c r="E32" s="333"/>
       <c r="F32" s="74" t="s">
         <v>170</v>
       </c>
@@ -41705,10 +41832,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="318" t="s">
+      <c r="D35" s="331" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="317"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="105" t="s">
         <v>384</v>
       </c>
@@ -41738,10 +41865,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="339" t="s">
         <v>387</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="340"/>
       <c r="F36" s="105" t="s">
         <v>268</v>
       </c>
@@ -42164,11 +42291,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="321" t="s">
+      <c r="B58" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="321"/>
-      <c r="D58" s="321"/>
+      <c r="C58" s="341"/>
+      <c r="D58" s="341"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -42185,12 +42312,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="322" t="s">
+      <c r="B59" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="323"/>
-      <c r="D59" s="323"/>
-      <c r="E59" s="324"/>
+      <c r="C59" s="329"/>
+      <c r="D59" s="329"/>
+      <c r="E59" s="330"/>
       <c r="F59" s="149" t="s">
         <v>124</v>
       </c>
@@ -42282,10 +42409,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="318" t="s">
+      <c r="D62" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="317"/>
+      <c r="E62" s="333"/>
       <c r="F62" s="74" t="s">
         <v>138</v>
       </c>
@@ -42315,10 +42442,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="318" t="s">
+      <c r="D63" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="325"/>
+      <c r="E63" s="342"/>
       <c r="F63" s="105" t="s">
         <v>186</v>
       </c>
@@ -42348,10 +42475,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="326" t="s">
+      <c r="D64" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="325"/>
+      <c r="E64" s="342"/>
       <c r="F64" s="105" t="s">
         <v>189</v>
       </c>
@@ -42445,8 +42572,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
-      <c r="D67" s="316"/>
-      <c r="E67" s="317"/>
+      <c r="D67" s="334"/>
+      <c r="E67" s="333"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -42836,6 +42963,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -42848,14 +42983,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -42953,15 +43080,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -42974,15 +43101,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -43016,15 +43143,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -43058,15 +43185,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -43129,19 +43256,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -43170,11 +43297,11 @@
       <c r="I14" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -43199,11 +43326,11 @@
       <c r="I15" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -43425,11 +43552,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="329"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -43444,12 +43571,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="323"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="330"/>
       <c r="F28" s="149" t="s">
         <v>124</v>
       </c>
@@ -43541,10 +43668,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>138</v>
       </c>
@@ -43574,10 +43701,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="317"/>
+      <c r="E32" s="333"/>
       <c r="F32" s="74" t="s">
         <v>170</v>
       </c>
@@ -43669,10 +43796,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="318" t="s">
+      <c r="D35" s="331" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="317"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="105" t="s">
         <v>384</v>
       </c>
@@ -43702,10 +43829,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="339" t="s">
         <v>387</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="340"/>
       <c r="F36" s="105" t="s">
         <v>268</v>
       </c>
@@ -44128,11 +44255,11 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="321" t="s">
+      <c r="B58" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="321"/>
-      <c r="D58" s="321"/>
+      <c r="C58" s="341"/>
+      <c r="D58" s="341"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -44149,12 +44276,12 @@
     </row>
     <row r="59" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="83"/>
-      <c r="B59" s="322" t="s">
+      <c r="B59" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="323"/>
-      <c r="D59" s="323"/>
-      <c r="E59" s="324"/>
+      <c r="C59" s="329"/>
+      <c r="D59" s="329"/>
+      <c r="E59" s="330"/>
       <c r="F59" s="149" t="s">
         <v>124</v>
       </c>
@@ -44246,10 +44373,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="85"/>
       <c r="C62" s="90"/>
-      <c r="D62" s="318" t="s">
+      <c r="D62" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E62" s="317"/>
+      <c r="E62" s="333"/>
       <c r="F62" s="74" t="s">
         <v>138</v>
       </c>
@@ -44279,10 +44406,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="85"/>
       <c r="C63" s="90"/>
-      <c r="D63" s="318" t="s">
+      <c r="D63" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="325"/>
+      <c r="E63" s="342"/>
       <c r="F63" s="105" t="s">
         <v>186</v>
       </c>
@@ -44312,10 +44439,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="85"/>
       <c r="C64" s="90"/>
-      <c r="D64" s="326" t="s">
+      <c r="D64" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="325"/>
+      <c r="E64" s="342"/>
       <c r="F64" s="105" t="s">
         <v>189</v>
       </c>
@@ -44438,10 +44565,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="85"/>
       <c r="C68" s="95"/>
-      <c r="D68" s="318" t="s">
+      <c r="D68" s="331" t="s">
         <v>285</v>
       </c>
-      <c r="E68" s="317"/>
+      <c r="E68" s="333"/>
       <c r="F68" s="105" t="s">
         <v>384</v>
       </c>
@@ -44471,10 +44598,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="85"/>
       <c r="C69" s="95"/>
-      <c r="D69" s="319" t="s">
+      <c r="D69" s="339" t="s">
         <v>387</v>
       </c>
-      <c r="E69" s="320"/>
+      <c r="E69" s="340"/>
       <c r="F69" s="105" t="s">
         <v>268</v>
       </c>
@@ -44927,6 +45054,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -44938,15 +45074,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -45043,15 +45170,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -45064,15 +45191,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -45106,15 +45233,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -45148,15 +45275,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -45219,19 +45346,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -45260,11 +45387,11 @@
       <c r="I14" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -45289,11 +45416,11 @@
       <c r="I15" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -45484,11 +45611,11 @@
     </row>
     <row r="26" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="329"/>
-      <c r="D26" s="329"/>
+      <c r="C26" s="327"/>
+      <c r="D26" s="327"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
       <c r="G26" s="80"/>
@@ -45503,12 +45630,12 @@
     </row>
     <row r="27" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="83"/>
-      <c r="B27" s="322" t="s">
+      <c r="B27" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="323"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="324"/>
+      <c r="C27" s="329"/>
+      <c r="D27" s="329"/>
+      <c r="E27" s="330"/>
       <c r="F27" s="149" t="s">
         <v>124</v>
       </c>
@@ -45600,10 +45727,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="85"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="317"/>
+      <c r="E30" s="333"/>
       <c r="F30" s="74" t="s">
         <v>138</v>
       </c>
@@ -45633,10 +45760,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>170</v>
       </c>
@@ -45699,8 +45826,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="85"/>
       <c r="C33" s="95"/>
-      <c r="D33" s="338"/>
-      <c r="E33" s="338"/>
+      <c r="D33" s="347"/>
+      <c r="E33" s="347"/>
       <c r="F33" s="105"/>
       <c r="G33" s="106"/>
       <c r="H33" s="76"/>
@@ -46022,11 +46149,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="321" t="s">
+      <c r="B52" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="321"/>
-      <c r="D52" s="321"/>
+      <c r="C52" s="341"/>
+      <c r="D52" s="341"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -46043,12 +46170,12 @@
     </row>
     <row r="53" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="83"/>
-      <c r="B53" s="322" t="s">
+      <c r="B53" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="323"/>
-      <c r="D53" s="323"/>
-      <c r="E53" s="324"/>
+      <c r="C53" s="329"/>
+      <c r="D53" s="329"/>
+      <c r="E53" s="330"/>
       <c r="F53" s="149" t="s">
         <v>124</v>
       </c>
@@ -46140,10 +46267,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="85"/>
       <c r="C56" s="90"/>
-      <c r="D56" s="318" t="s">
+      <c r="D56" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="317"/>
+      <c r="E56" s="333"/>
       <c r="F56" s="74" t="s">
         <v>138</v>
       </c>
@@ -46173,10 +46300,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="85"/>
       <c r="C57" s="90"/>
-      <c r="D57" s="318" t="s">
+      <c r="D57" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="325"/>
+      <c r="E57" s="342"/>
       <c r="F57" s="105" t="s">
         <v>186</v>
       </c>
@@ -46206,10 +46333,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="326" t="s">
+      <c r="D58" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="325"/>
+      <c r="E58" s="342"/>
       <c r="F58" s="105" t="s">
         <v>189</v>
       </c>
@@ -46303,8 +46430,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
-      <c r="D61" s="316"/>
-      <c r="E61" s="317"/>
+      <c r="D61" s="334"/>
+      <c r="E61" s="333"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -46694,17 +46821,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D33:E33"/>
@@ -46712,6 +46828,17 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -46808,15 +46935,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -46829,15 +46956,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>403</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -46871,15 +46998,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -46913,15 +47040,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -46984,19 +47111,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -47025,11 +47152,11 @@
       <c r="I14" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -47054,11 +47181,11 @@
       <c r="I15" s="129" t="s">
         <v>270</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>286</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -47073,9 +47200,9 @@
       <c r="G16" s="76"/>
       <c r="H16" s="76"/>
       <c r="I16" s="129"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -47254,11 +47381,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="329"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -47273,12 +47400,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="323"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="330"/>
       <c r="F28" s="149" t="s">
         <v>124</v>
       </c>
@@ -47370,10 +47497,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>138</v>
       </c>
@@ -47403,10 +47530,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="317"/>
+      <c r="E32" s="333"/>
       <c r="F32" s="74" t="s">
         <v>170</v>
       </c>
@@ -47469,10 +47596,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="85"/>
       <c r="C34" s="95"/>
-      <c r="D34" s="318" t="s">
+      <c r="D34" s="331" t="s">
         <v>387</v>
       </c>
-      <c r="E34" s="317"/>
+      <c r="E34" s="333"/>
       <c r="F34" s="105" t="s">
         <v>268</v>
       </c>
@@ -47502,10 +47629,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="319" t="s">
+      <c r="D35" s="339" t="s">
         <v>280</v>
       </c>
-      <c r="E35" s="320"/>
+      <c r="E35" s="340"/>
       <c r="F35" s="105" t="s">
         <v>281</v>
       </c>
@@ -47841,11 +47968,11 @@
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="321" t="s">
+      <c r="B54" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="321"/>
-      <c r="D54" s="321"/>
+      <c r="C54" s="341"/>
+      <c r="D54" s="341"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -47862,12 +47989,12 @@
     </row>
     <row r="55" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="83"/>
-      <c r="B55" s="322" t="s">
+      <c r="B55" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="323"/>
-      <c r="D55" s="323"/>
-      <c r="E55" s="324"/>
+      <c r="C55" s="329"/>
+      <c r="D55" s="329"/>
+      <c r="E55" s="330"/>
       <c r="F55" s="149" t="s">
         <v>124</v>
       </c>
@@ -47959,10 +48086,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="85"/>
       <c r="C58" s="90"/>
-      <c r="D58" s="318" t="s">
+      <c r="D58" s="331" t="s">
         <v>168</v>
       </c>
-      <c r="E58" s="317"/>
+      <c r="E58" s="333"/>
       <c r="F58" s="74" t="s">
         <v>138</v>
       </c>
@@ -47992,10 +48119,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="85"/>
       <c r="C59" s="90"/>
-      <c r="D59" s="318" t="s">
+      <c r="D59" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="325"/>
+      <c r="E59" s="342"/>
       <c r="F59" s="105" t="s">
         <v>186</v>
       </c>
@@ -48025,10 +48152,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="85"/>
       <c r="C60" s="90"/>
-      <c r="D60" s="326" t="s">
+      <c r="D60" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="325"/>
+      <c r="E60" s="342"/>
       <c r="F60" s="105" t="s">
         <v>189</v>
       </c>
@@ -48122,8 +48249,8 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="316"/>
-      <c r="E63" s="317"/>
+      <c r="D63" s="334"/>
+      <c r="E63" s="333"/>
       <c r="F63" s="74"/>
       <c r="G63" s="76"/>
       <c r="H63" s="76"/>
@@ -48513,6 +48640,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -48525,14 +48660,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -48626,15 +48753,15 @@
       <c r="B4" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="317"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="333"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -48647,15 +48774,15 @@
       <c r="B5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="331" t="s">
         <v>406</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="317"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="333"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -48689,15 +48816,15 @@
       <c r="B7" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="318" t="s">
+      <c r="C7" s="331" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="317"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="333"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -48731,15 +48858,15 @@
       <c r="B9" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="316" t="s">
+      <c r="C9" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="317"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="333"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -48802,19 +48929,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="335" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
-      <c r="J13" s="332"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="333"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="336"/>
+      <c r="H13" s="336"/>
+      <c r="I13" s="336"/>
+      <c r="J13" s="336"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="337"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48843,11 +48970,11 @@
       <c r="I14" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="334" t="s">
+      <c r="J14" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
+      <c r="K14" s="338"/>
+      <c r="L14" s="338"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48872,11 +48999,11 @@
       <c r="I15" s="129" t="s">
         <v>408</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="325" t="s">
         <v>409</v>
       </c>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
+      <c r="K15" s="326"/>
+      <c r="L15" s="326"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -48901,11 +49028,11 @@
       <c r="I16" s="129" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="327" t="s">
+      <c r="J16" s="325" t="s">
         <v>410</v>
       </c>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="326"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -49084,11 +49211,11 @@
     </row>
     <row r="27" spans="1:15" s="82" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="69"/>
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="329"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
       <c r="G27" s="80"/>
@@ -49103,12 +49230,12 @@
     </row>
     <row r="28" spans="1:15" s="84" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="83"/>
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="323"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="324"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="330"/>
       <c r="F28" s="149" t="s">
         <v>124</v>
       </c>
@@ -49200,10 +49327,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="85"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="316" t="s">
+      <c r="D31" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="317"/>
+      <c r="E31" s="333"/>
       <c r="F31" s="74" t="s">
         <v>138</v>
       </c>
@@ -49233,10 +49360,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="85"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="334" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="317"/>
+      <c r="E32" s="333"/>
       <c r="F32" s="74" t="s">
         <v>170</v>
       </c>
@@ -49328,10 +49455,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="85"/>
       <c r="C35" s="95"/>
-      <c r="D35" s="318" t="s">
+      <c r="D35" s="331" t="s">
         <v>387</v>
       </c>
-      <c r="E35" s="317"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="105" t="s">
         <v>268</v>
       </c>
@@ -49361,10 +49488,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="85"/>
       <c r="C36" s="95"/>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="339" t="s">
         <v>280</v>
       </c>
-      <c r="E36" s="320"/>
+      <c r="E36" s="340"/>
       <c r="F36" s="105" t="s">
         <v>281</v>
       </c>
@@ -49710,11 +49837,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="321" t="s">
+      <c r="B57" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="321"/>
-      <c r="D57" s="321"/>
+      <c r="C57" s="341"/>
+      <c r="D57" s="341"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -49731,12 +49858,12 @@
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="322" t="s">
+      <c r="B58" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="323"/>
-      <c r="D58" s="323"/>
-      <c r="E58" s="324"/>
+      <c r="C58" s="329"/>
+      <c r="D58" s="329"/>
+      <c r="E58" s="330"/>
       <c r="F58" s="149" t="s">
         <v>124</v>
       </c>
@@ -50348,22 +50475,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -50408,10 +50535,10 @@
       <c r="C4" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="286" t="s">
+      <c r="D4" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="286"/>
+      <c r="E4" s="292"/>
       <c r="F4" s="111" t="s">
         <v>182</v>
       </c>
@@ -50424,10 +50551,10 @@
       <c r="C5" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="285" t="s">
+      <c r="D5" s="293" t="s">
         <v>441</v>
       </c>
-      <c r="E5" s="285"/>
+      <c r="E5" s="293"/>
       <c r="F5" s="120" t="s">
         <v>235</v>
       </c>
@@ -50441,10 +50568,10 @@
       <c r="C6" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="285" t="s">
+      <c r="D6" s="293" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="285"/>
+      <c r="E6" s="293"/>
       <c r="F6" s="120" t="s">
         <v>262</v>
       </c>
@@ -50457,10 +50584,10 @@
       <c r="C7" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="285" t="s">
+      <c r="D7" s="293" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="285"/>
+      <c r="E7" s="293"/>
       <c r="F7" s="120" t="s">
         <v>263</v>
       </c>
@@ -50473,10 +50600,10 @@
       <c r="C8" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="285" t="s">
+      <c r="D8" s="293" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="285"/>
+      <c r="E8" s="293"/>
       <c r="F8" s="120" t="s">
         <v>273</v>
       </c>
@@ -50496,10 +50623,10 @@
       <c r="C10" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="286" t="s">
+      <c r="D10" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="286"/>
+      <c r="E10" s="292"/>
       <c r="F10" s="111" t="s">
         <v>182</v>
       </c>
@@ -50511,10 +50638,10 @@
       <c r="C11" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="285" t="s">
+      <c r="D11" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="285"/>
+      <c r="E11" s="293"/>
       <c r="F11" s="100"/>
       <c r="H11" s="100"/>
     </row>
@@ -50525,10 +50652,10 @@
       <c r="C12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="285" t="s">
+      <c r="D12" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="285"/>
+      <c r="E12" s="293"/>
       <c r="F12" s="120"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
@@ -50540,10 +50667,10 @@
       <c r="C13" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="285" t="s">
+      <c r="D13" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="285"/>
+      <c r="E13" s="293"/>
       <c r="F13" s="120"/>
       <c r="G13" s="100"/>
       <c r="H13" s="100"/>
@@ -50555,10 +50682,10 @@
       <c r="C14" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="285" t="s">
+      <c r="D14" s="293" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="285"/>
+      <c r="E14" s="293"/>
       <c r="F14" s="120"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
@@ -50570,10 +50697,10 @@
       <c r="C15" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="285" t="s">
+      <c r="D15" s="293" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="285"/>
+      <c r="E15" s="293"/>
       <c r="F15" s="120"/>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
@@ -50592,10 +50719,10 @@
       <c r="C18" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="286" t="s">
+      <c r="D18" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="286"/>
+      <c r="E18" s="292"/>
       <c r="F18" s="111" t="s">
         <v>182</v>
       </c>
@@ -50607,10 +50734,10 @@
       <c r="C19" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="285" t="s">
+      <c r="D19" s="293" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="285"/>
+      <c r="E19" s="293"/>
       <c r="F19" s="122"/>
       <c r="G19" s="100"/>
       <c r="H19" s="100"/>
@@ -50622,10 +50749,10 @@
       <c r="C20" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="285" t="s">
+      <c r="D20" s="293" t="s">
         <v>461</v>
       </c>
-      <c r="E20" s="285"/>
+      <c r="E20" s="293"/>
       <c r="F20" s="122"/>
       <c r="G20" s="100"/>
       <c r="H20" s="100"/>
@@ -50637,10 +50764,10 @@
       <c r="C21" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="285" t="s">
+      <c r="D21" s="293" t="s">
         <v>442</v>
       </c>
-      <c r="E21" s="285"/>
+      <c r="E21" s="293"/>
       <c r="F21" s="122"/>
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
@@ -50652,10 +50779,10 @@
       <c r="C22" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="285" t="s">
+      <c r="D22" s="293" t="s">
         <v>437</v>
       </c>
-      <c r="E22" s="285"/>
+      <c r="E22" s="293"/>
       <c r="F22" s="122"/>
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
@@ -50667,10 +50794,10 @@
       <c r="C23" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="285" t="s">
+      <c r="D23" s="293" t="s">
         <v>462</v>
       </c>
-      <c r="E23" s="285"/>
+      <c r="E23" s="293"/>
       <c r="F23" s="122"/>
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
@@ -50682,10 +50809,10 @@
       <c r="C24" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="D24" s="285" t="s">
+      <c r="D24" s="293" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="285"/>
+      <c r="E24" s="293"/>
       <c r="F24" s="122"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -50704,10 +50831,10 @@
       <c r="C27" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="286" t="s">
+      <c r="D27" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="286"/>
+      <c r="E27" s="292"/>
       <c r="F27" s="111" t="s">
         <v>182</v>
       </c>
@@ -50719,10 +50846,10 @@
       <c r="C28" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="285" t="s">
+      <c r="D28" s="293" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="285"/>
+      <c r="E28" s="293"/>
       <c r="F28" s="122"/>
       <c r="G28" s="100"/>
       <c r="H28" s="100"/>
@@ -50734,10 +50861,10 @@
       <c r="C29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="285" t="s">
+      <c r="D29" s="293" t="s">
         <v>251</v>
       </c>
-      <c r="E29" s="285"/>
+      <c r="E29" s="293"/>
       <c r="F29" s="122"/>
       <c r="G29" s="100"/>
       <c r="H29" s="100"/>
@@ -50749,10 +50876,10 @@
       <c r="C30" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="285" t="s">
+      <c r="D30" s="293" t="s">
         <v>432</v>
       </c>
-      <c r="E30" s="285"/>
+      <c r="E30" s="293"/>
       <c r="F30" s="122"/>
       <c r="G30" s="100"/>
       <c r="H30" s="100"/>
@@ -50764,10 +50891,10 @@
       <c r="C31" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="285" t="s">
+      <c r="D31" s="293" t="s">
         <v>242</v>
       </c>
-      <c r="E31" s="285"/>
+      <c r="E31" s="293"/>
       <c r="F31" s="122"/>
       <c r="G31" s="100"/>
       <c r="H31" s="100"/>
@@ -50779,16 +50906,16 @@
       <c r="C32" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="285" t="s">
+      <c r="D32" s="293" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="285"/>
+      <c r="E32" s="293"/>
       <c r="F32" s="122"/>
       <c r="G32" s="100"/>
       <c r="H32" s="100"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="E34" s="340"/>
+      <c r="E34" s="246"/>
     </row>
     <row r="35" spans="2:6" ht="15.75">
       <c r="B35" s="121" t="s">
@@ -50802,10 +50929,10 @@
       <c r="C36" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="286" t="s">
+      <c r="D36" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="286"/>
+      <c r="E36" s="292"/>
       <c r="F36" s="111" t="s">
         <v>182</v>
       </c>
@@ -50817,10 +50944,10 @@
       <c r="C37" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="287" t="s">
+      <c r="D37" s="294" t="s">
         <v>246</v>
       </c>
-      <c r="E37" s="288"/>
+      <c r="E37" s="295"/>
       <c r="F37" s="122"/>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1">
@@ -50830,10 +50957,10 @@
       <c r="C38" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="287" t="s">
+      <c r="D38" s="294" t="s">
         <v>247</v>
       </c>
-      <c r="E38" s="288"/>
+      <c r="E38" s="295"/>
       <c r="F38" s="122"/>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1">
@@ -50843,10 +50970,10 @@
       <c r="C39" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="287" t="s">
+      <c r="D39" s="294" t="s">
         <v>248</v>
       </c>
-      <c r="E39" s="288"/>
+      <c r="E39" s="295"/>
       <c r="F39" s="122"/>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1">
@@ -50856,10 +50983,10 @@
       <c r="C40" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="287" t="s">
+      <c r="D40" s="294" t="s">
         <v>249</v>
       </c>
-      <c r="E40" s="288"/>
+      <c r="E40" s="295"/>
       <c r="F40" s="122"/>
     </row>
     <row r="41" spans="2:6">
@@ -50869,10 +50996,10 @@
       <c r="C41" s="126">
         <v>2506</v>
       </c>
-      <c r="D41" s="283" t="s">
+      <c r="D41" s="296" t="s">
         <v>478</v>
       </c>
-      <c r="E41" s="284"/>
+      <c r="E41" s="297"/>
       <c r="F41" s="127"/>
     </row>
     <row r="42" spans="2:6">
@@ -50882,10 +51009,10 @@
       <c r="C42" s="126">
         <v>2507</v>
       </c>
-      <c r="D42" s="283" t="s">
+      <c r="D42" s="296" t="s">
         <v>307</v>
       </c>
-      <c r="E42" s="284"/>
+      <c r="E42" s="297"/>
       <c r="F42" s="128"/>
     </row>
     <row r="44" spans="2:6" ht="15.75">
@@ -50900,10 +51027,10 @@
       <c r="C45" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="286" t="s">
+      <c r="D45" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="E45" s="286"/>
+      <c r="E45" s="292"/>
       <c r="F45" s="111" t="s">
         <v>182</v>
       </c>
@@ -50915,10 +51042,10 @@
       <c r="C46" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="285" t="s">
+      <c r="D46" s="293" t="s">
         <v>253</v>
       </c>
-      <c r="E46" s="285"/>
+      <c r="E46" s="293"/>
       <c r="F46" s="122"/>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -50928,10 +51055,10 @@
       <c r="C47" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="285" t="s">
+      <c r="D47" s="293" t="s">
         <v>254</v>
       </c>
-      <c r="E47" s="285"/>
+      <c r="E47" s="293"/>
       <c r="F47" s="122"/>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -50941,10 +51068,10 @@
       <c r="C48" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="285" t="s">
+      <c r="D48" s="293" t="s">
         <v>255</v>
       </c>
-      <c r="E48" s="285"/>
+      <c r="E48" s="293"/>
       <c r="F48" s="122"/>
     </row>
     <row r="49" spans="2:6" ht="32.25" customHeight="1">
@@ -50954,10 +51081,10 @@
       <c r="C49" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="285" t="s">
+      <c r="D49" s="293" t="s">
         <v>256</v>
       </c>
-      <c r="E49" s="285"/>
+      <c r="E49" s="293"/>
       <c r="F49" s="122" t="s">
         <v>431</v>
       </c>
@@ -50969,10 +51096,10 @@
       <c r="C50" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="285" t="s">
+      <c r="D50" s="293" t="s">
         <v>257</v>
       </c>
-      <c r="E50" s="285"/>
+      <c r="E50" s="293"/>
       <c r="F50" s="122"/>
     </row>
     <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -50982,25 +51109,27 @@
       <c r="C51" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="285" t="s">
+      <c r="D51" s="293" t="s">
         <v>258</v>
       </c>
-      <c r="E51" s="285"/>
+      <c r="E51" s="293"/>
       <c r="F51" s="122"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -51017,18 +51146,16 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51108,10 +51235,10 @@
       <c r="D4" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="298" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="290"/>
+      <c r="F4" s="299"/>
       <c r="G4" s="140" t="s">
         <v>154</v>
       </c>
@@ -51126,7 +51253,7 @@
       <c r="C5" s="118" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="291" t="s">
+      <c r="D5" s="300" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="198" t="s">
@@ -51151,7 +51278,7 @@
       <c r="C6" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="292"/>
+      <c r="D6" s="301"/>
       <c r="E6" s="199" t="s">
         <v>153</v>
       </c>
@@ -51174,7 +51301,7 @@
       <c r="C7" s="118" t="s">
         <v>423</v>
       </c>
-      <c r="D7" s="292"/>
+      <c r="D7" s="301"/>
       <c r="E7" s="198" t="s">
         <v>201</v>
       </c>
@@ -51197,7 +51324,7 @@
       <c r="C8" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="292"/>
+      <c r="D8" s="301"/>
       <c r="E8" s="198" t="s">
         <v>202</v>
       </c>
@@ -51220,7 +51347,7 @@
       <c r="C9" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="292"/>
+      <c r="D9" s="301"/>
       <c r="E9" s="198" t="s">
         <v>201</v>
       </c>
@@ -51243,7 +51370,7 @@
       <c r="C10" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="292"/>
+      <c r="D10" s="301"/>
       <c r="E10" s="198" t="s">
         <v>201</v>
       </c>
@@ -51266,7 +51393,7 @@
       <c r="C11" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="293"/>
+      <c r="D11" s="302"/>
       <c r="E11" s="198" t="s">
         <v>202</v>
       </c>
@@ -51289,7 +51416,7 @@
       <c r="C12" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="294" t="s">
+      <c r="D12" s="303" t="s">
         <v>250</v>
       </c>
       <c r="E12" s="198" t="s">
@@ -51314,7 +51441,7 @@
       <c r="C13" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="295"/>
+      <c r="D13" s="304"/>
       <c r="E13" s="198" t="s">
         <v>201</v>
       </c>
@@ -51337,7 +51464,7 @@
       <c r="C14" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="295"/>
+      <c r="D14" s="304"/>
       <c r="E14" s="198" t="s">
         <v>201</v>
       </c>
@@ -51360,7 +51487,7 @@
       <c r="C15" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="295"/>
+      <c r="D15" s="304"/>
       <c r="E15" s="198" t="s">
         <v>201</v>
       </c>
@@ -51383,7 +51510,7 @@
       <c r="C16" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="295"/>
+      <c r="D16" s="304"/>
       <c r="E16" s="198" t="s">
         <v>220</v>
       </c>
@@ -51406,7 +51533,7 @@
       <c r="C17" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="295"/>
+      <c r="D17" s="304"/>
       <c r="E17" s="198" t="s">
         <v>202</v>
       </c>
@@ -51429,7 +51556,7 @@
       <c r="C18" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="D18" s="295"/>
+      <c r="D18" s="304"/>
       <c r="E18" s="198" t="s">
         <v>202</v>
       </c>
@@ -51452,7 +51579,7 @@
       <c r="C19" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="296" t="s">
+      <c r="D19" s="305" t="s">
         <v>152</v>
       </c>
       <c r="E19" s="198" t="s">
@@ -51477,7 +51604,7 @@
       <c r="C20" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="297"/>
+      <c r="D20" s="306"/>
       <c r="E20" s="198" t="s">
         <v>201</v>
       </c>
@@ -51500,7 +51627,7 @@
       <c r="C21" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="297"/>
+      <c r="D21" s="306"/>
       <c r="E21" s="198" t="s">
         <v>220</v>
       </c>
@@ -51523,7 +51650,7 @@
       <c r="C22" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="297"/>
+      <c r="D22" s="306"/>
       <c r="E22" s="198" t="s">
         <v>202</v>
       </c>
@@ -51546,7 +51673,7 @@
       <c r="C23" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="298"/>
+      <c r="D23" s="307"/>
       <c r="E23" s="198" t="s">
         <v>202</v>
       </c>
@@ -51700,15 +51827,15 @@
       <c r="B4" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="308" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309"/>
-      <c r="H4" s="309"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="309"/>
       <c r="J4" s="152"/>
       <c r="K4" s="152"/>
       <c r="L4" s="152"/>
@@ -51721,15 +51848,15 @@
       <c r="B5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="308" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="152"/>
       <c r="K5" s="152"/>
       <c r="L5" s="152"/>
@@ -51763,15 +51890,15 @@
       <c r="B7" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="308" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="152"/>
       <c r="K7" s="152"/>
       <c r="L7" s="152"/>
@@ -51805,15 +51932,15 @@
       <c r="B9" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="152"/>
@@ -51876,19 +52003,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="314"/>
       <c r="M13" s="152"/>
       <c r="N13" s="152"/>
       <c r="O13" s="152"/>
@@ -51917,11 +52044,11 @@
       <c r="I14" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
       <c r="M14" s="152"/>
       <c r="N14" s="152"/>
       <c r="O14" s="152"/>
@@ -51950,11 +52077,11 @@
       <c r="I15" s="129" t="s">
         <v>356</v>
       </c>
-      <c r="J15" s="308" t="s">
+      <c r="J15" s="318" t="s">
         <v>355</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
       <c r="O15" s="152"/>
@@ -51983,11 +52110,11 @@
       <c r="I16" s="129" t="s">
         <v>352</v>
       </c>
-      <c r="J16" s="308" t="s">
+      <c r="J16" s="318" t="s">
         <v>351</v>
       </c>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="152"/>
       <c r="N16" s="152"/>
       <c r="O16" s="152"/>
@@ -52049,11 +52176,11 @@
       <c r="I18" s="158" t="s">
         <v>348</v>
       </c>
-      <c r="J18" s="300" t="s">
+      <c r="J18" s="308" t="s">
         <v>347</v>
       </c>
-      <c r="K18" s="309"/>
-      <c r="L18" s="301"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="309"/>
       <c r="M18" s="152"/>
       <c r="N18" s="152"/>
       <c r="O18" s="152"/>
@@ -52082,11 +52209,11 @@
       <c r="I19" s="181" t="s">
         <v>346</v>
       </c>
-      <c r="J19" s="300" t="s">
+      <c r="J19" s="308" t="s">
         <v>345</v>
       </c>
-      <c r="K19" s="309"/>
-      <c r="L19" s="301"/>
+      <c r="K19" s="310"/>
+      <c r="L19" s="309"/>
       <c r="M19" s="152"/>
       <c r="N19" s="152"/>
       <c r="O19" s="152"/>
@@ -52248,11 +52375,11 @@
     </row>
     <row r="29" spans="1:15" s="176" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="177"/>
-      <c r="B29" s="313" t="s">
+      <c r="B29" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="313"/>
-      <c r="D29" s="313"/>
+      <c r="C29" s="322"/>
+      <c r="D29" s="322"/>
       <c r="E29" s="178"/>
       <c r="F29" s="179"/>
       <c r="G29" s="178"/>
@@ -52267,12 +52394,12 @@
     </row>
     <row r="30" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="172"/>
-      <c r="B30" s="305" t="s">
+      <c r="B30" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="306"/>
-      <c r="D30" s="306"/>
-      <c r="E30" s="307"/>
+      <c r="C30" s="316"/>
+      <c r="D30" s="316"/>
+      <c r="E30" s="317"/>
       <c r="F30" s="173" t="s">
         <v>124</v>
       </c>
@@ -52364,10 +52491,10 @@
       <c r="A33" s="152"/>
       <c r="B33" s="166"/>
       <c r="C33" s="170"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="309"/>
       <c r="F33" s="160" t="s">
         <v>323</v>
       </c>
@@ -52397,10 +52524,10 @@
       <c r="A34" s="152"/>
       <c r="B34" s="166"/>
       <c r="C34" s="161"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="308" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="309"/>
       <c r="F34" s="160" t="s">
         <v>170</v>
       </c>
@@ -52463,10 +52590,10 @@
       <c r="A36" s="152"/>
       <c r="B36" s="166"/>
       <c r="C36" s="169"/>
-      <c r="D36" s="300" t="s">
+      <c r="D36" s="308" t="s">
         <v>344</v>
       </c>
-      <c r="E36" s="301"/>
+      <c r="E36" s="309"/>
       <c r="F36" s="160" t="s">
         <v>172</v>
       </c>
@@ -52496,10 +52623,10 @@
       <c r="A37" s="152"/>
       <c r="B37" s="166"/>
       <c r="C37" s="169"/>
-      <c r="D37" s="311" t="s">
+      <c r="D37" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="E37" s="312"/>
+      <c r="E37" s="321"/>
       <c r="F37" s="160" t="s">
         <v>340</v>
       </c>
@@ -52529,10 +52656,10 @@
       <c r="A38" s="152"/>
       <c r="B38" s="166"/>
       <c r="C38" s="170"/>
-      <c r="D38" s="300" t="s">
+      <c r="D38" s="308" t="s">
         <v>338</v>
       </c>
-      <c r="E38" s="301"/>
+      <c r="E38" s="309"/>
       <c r="F38" s="160" t="s">
         <v>337</v>
       </c>
@@ -52682,10 +52809,10 @@
       <c r="A43" s="152"/>
       <c r="B43" s="162"/>
       <c r="C43" s="161"/>
-      <c r="D43" s="300" t="s">
+      <c r="D43" s="308" t="s">
         <v>329</v>
       </c>
-      <c r="E43" s="301"/>
+      <c r="E43" s="309"/>
       <c r="F43" s="160" t="s">
         <v>328</v>
       </c>
@@ -53021,11 +53148,11 @@
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="152"/>
-      <c r="B62" s="310" t="s">
+      <c r="B62" s="319" t="s">
         <v>326</v>
       </c>
-      <c r="C62" s="310"/>
-      <c r="D62" s="310"/>
+      <c r="C62" s="319"/>
+      <c r="D62" s="319"/>
       <c r="E62" s="152"/>
       <c r="F62" s="152"/>
       <c r="G62" s="152"/>
@@ -53042,12 +53169,12 @@
     </row>
     <row r="63" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="172"/>
-      <c r="B63" s="305" t="s">
+      <c r="B63" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="306"/>
-      <c r="D63" s="306"/>
-      <c r="E63" s="307"/>
+      <c r="C63" s="316"/>
+      <c r="D63" s="316"/>
+      <c r="E63" s="317"/>
       <c r="F63" s="173" t="s">
         <v>124</v>
       </c>
@@ -53139,10 +53266,10 @@
       <c r="A66" s="152"/>
       <c r="B66" s="166"/>
       <c r="C66" s="170"/>
-      <c r="D66" s="300" t="s">
+      <c r="D66" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E66" s="301"/>
+      <c r="E66" s="309"/>
       <c r="F66" s="160" t="s">
         <v>323</v>
       </c>
@@ -53172,10 +53299,10 @@
       <c r="A67" s="152"/>
       <c r="B67" s="166"/>
       <c r="C67" s="170"/>
-      <c r="D67" s="300" t="s">
+      <c r="D67" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="301"/>
+      <c r="E67" s="309"/>
       <c r="F67" s="160" t="s">
         <v>186</v>
       </c>
@@ -53205,10 +53332,10 @@
       <c r="A68" s="152"/>
       <c r="B68" s="166"/>
       <c r="C68" s="170"/>
-      <c r="D68" s="314" t="s">
+      <c r="D68" s="323" t="s">
         <v>191</v>
       </c>
-      <c r="E68" s="301"/>
+      <c r="E68" s="309"/>
       <c r="F68" s="160" t="s">
         <v>189</v>
       </c>
@@ -53302,8 +53429,8 @@
       <c r="A71" s="152"/>
       <c r="B71" s="162"/>
       <c r="C71" s="161"/>
-      <c r="D71" s="300"/>
-      <c r="E71" s="301"/>
+      <c r="D71" s="308"/>
+      <c r="E71" s="309"/>
       <c r="F71" s="160"/>
       <c r="G71" s="159"/>
       <c r="H71" s="159"/>
@@ -53693,14 +53820,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="B13:L13"/>
@@ -53717,6 +53836,14 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -53816,15 +53943,15 @@
       <c r="B4" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="308" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309"/>
-      <c r="H4" s="309"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="309"/>
       <c r="J4" s="152"/>
       <c r="K4" s="152"/>
       <c r="L4" s="152"/>
@@ -53837,15 +53964,15 @@
       <c r="B5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="308" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="152"/>
       <c r="K5" s="152"/>
       <c r="L5" s="152"/>
@@ -53879,15 +54006,15 @@
       <c r="B7" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="308" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="152"/>
       <c r="K7" s="152"/>
       <c r="L7" s="152"/>
@@ -53921,15 +54048,15 @@
       <c r="B9" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="152"/>
@@ -53992,19 +54119,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="314"/>
       <c r="M13" s="152"/>
       <c r="N13" s="152"/>
       <c r="O13" s="152"/>
@@ -54033,11 +54160,11 @@
       <c r="I14" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
       <c r="M14" s="152"/>
       <c r="N14" s="152"/>
       <c r="O14" s="152"/>
@@ -54062,11 +54189,11 @@
       <c r="I15" s="129" t="s">
         <v>356</v>
       </c>
-      <c r="J15" s="308" t="s">
+      <c r="J15" s="318" t="s">
         <v>355</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
       <c r="O15" s="152"/>
@@ -54091,11 +54218,11 @@
       <c r="I16" s="129" t="s">
         <v>352</v>
       </c>
-      <c r="J16" s="308" t="s">
+      <c r="J16" s="318" t="s">
         <v>361</v>
       </c>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
       <c r="M16" s="152"/>
       <c r="N16" s="152"/>
       <c r="O16" s="152"/>
@@ -54257,11 +54384,11 @@
     </row>
     <row r="26" spans="1:15" s="176" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="177"/>
-      <c r="B26" s="313" t="s">
+      <c r="B26" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
+      <c r="C26" s="322"/>
+      <c r="D26" s="322"/>
       <c r="E26" s="178"/>
       <c r="F26" s="179"/>
       <c r="G26" s="178"/>
@@ -54276,12 +54403,12 @@
     </row>
     <row r="27" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="172"/>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="306"/>
-      <c r="D27" s="306"/>
-      <c r="E27" s="307"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="316"/>
+      <c r="E27" s="317"/>
       <c r="F27" s="173" t="s">
         <v>124</v>
       </c>
@@ -54373,10 +54500,10 @@
       <c r="A30" s="152"/>
       <c r="B30" s="166"/>
       <c r="C30" s="170"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="309"/>
       <c r="F30" s="160" t="s">
         <v>323</v>
       </c>
@@ -54406,10 +54533,10 @@
       <c r="A31" s="152"/>
       <c r="B31" s="166"/>
       <c r="C31" s="161"/>
-      <c r="D31" s="300" t="s">
+      <c r="D31" s="308" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="309"/>
       <c r="F31" s="160" t="s">
         <v>170</v>
       </c>
@@ -54472,10 +54599,10 @@
       <c r="A33" s="152"/>
       <c r="B33" s="166"/>
       <c r="C33" s="169"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="308" t="s">
         <v>344</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="309"/>
       <c r="F33" s="160" t="s">
         <v>172</v>
       </c>
@@ -54505,10 +54632,10 @@
       <c r="A34" s="152"/>
       <c r="B34" s="166"/>
       <c r="C34" s="169"/>
-      <c r="D34" s="311" t="s">
+      <c r="D34" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="E34" s="312"/>
+      <c r="E34" s="321"/>
       <c r="F34" s="160" t="s">
         <v>340</v>
       </c>
@@ -54538,10 +54665,10 @@
       <c r="A35" s="152"/>
       <c r="B35" s="166"/>
       <c r="C35" s="169"/>
-      <c r="D35" s="300" t="s">
+      <c r="D35" s="308" t="s">
         <v>338</v>
       </c>
-      <c r="E35" s="301"/>
+      <c r="E35" s="309"/>
       <c r="F35" s="160" t="s">
         <v>337</v>
       </c>
@@ -54637,10 +54764,10 @@
       <c r="A38" s="152"/>
       <c r="B38" s="162"/>
       <c r="C38" s="161"/>
-      <c r="D38" s="300" t="s">
+      <c r="D38" s="308" t="s">
         <v>329</v>
       </c>
-      <c r="E38" s="301"/>
+      <c r="E38" s="309"/>
       <c r="F38" s="160" t="s">
         <v>328</v>
       </c>
@@ -54976,11 +55103,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="152"/>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="319" t="s">
         <v>326</v>
       </c>
-      <c r="C57" s="310"/>
-      <c r="D57" s="310"/>
+      <c r="C57" s="319"/>
+      <c r="D57" s="319"/>
       <c r="E57" s="152"/>
       <c r="F57" s="152"/>
       <c r="G57" s="152"/>
@@ -54997,12 +55124,12 @@
     </row>
     <row r="58" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="172"/>
-      <c r="B58" s="305" t="s">
+      <c r="B58" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="306"/>
-      <c r="D58" s="306"/>
-      <c r="E58" s="307"/>
+      <c r="C58" s="316"/>
+      <c r="D58" s="316"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="173" t="s">
         <v>124</v>
       </c>
@@ -55094,10 +55221,10 @@
       <c r="A61" s="152"/>
       <c r="B61" s="166"/>
       <c r="C61" s="170"/>
-      <c r="D61" s="300" t="s">
+      <c r="D61" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="301"/>
+      <c r="E61" s="309"/>
       <c r="F61" s="160" t="s">
         <v>323</v>
       </c>
@@ -55127,10 +55254,10 @@
       <c r="A62" s="152"/>
       <c r="B62" s="166"/>
       <c r="C62" s="170"/>
-      <c r="D62" s="300" t="s">
+      <c r="D62" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="301"/>
+      <c r="E62" s="309"/>
       <c r="F62" s="160" t="s">
         <v>186</v>
       </c>
@@ -55160,10 +55287,10 @@
       <c r="A63" s="152"/>
       <c r="B63" s="166"/>
       <c r="C63" s="170"/>
-      <c r="D63" s="314" t="s">
+      <c r="D63" s="323" t="s">
         <v>191</v>
       </c>
-      <c r="E63" s="301"/>
+      <c r="E63" s="309"/>
       <c r="F63" s="160" t="s">
         <v>189</v>
       </c>
@@ -55257,8 +55384,8 @@
       <c r="A66" s="152"/>
       <c r="B66" s="162"/>
       <c r="C66" s="161"/>
-      <c r="D66" s="300"/>
-      <c r="E66" s="301"/>
+      <c r="D66" s="308"/>
+      <c r="E66" s="309"/>
       <c r="F66" s="160"/>
       <c r="G66" s="159"/>
       <c r="H66" s="159"/>
@@ -55648,28 +55775,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -55767,15 +55894,15 @@
       <c r="B4" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="308" t="s">
         <v>423</v>
       </c>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309"/>
-      <c r="H4" s="309"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="309"/>
       <c r="J4" s="152"/>
       <c r="K4" s="152"/>
       <c r="L4" s="152"/>
@@ -55788,15 +55915,15 @@
       <c r="B5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="308" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="152"/>
       <c r="K5" s="152"/>
       <c r="L5" s="152"/>
@@ -55830,15 +55957,15 @@
       <c r="B7" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="308" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="152"/>
       <c r="K7" s="152"/>
       <c r="L7" s="152"/>
@@ -55872,15 +55999,15 @@
       <c r="B9" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="152"/>
@@ -55943,19 +56070,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="314"/>
       <c r="M13" s="152"/>
       <c r="N13" s="152"/>
       <c r="O13" s="152"/>
@@ -55984,11 +56111,11 @@
       <c r="I14" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
       <c r="M14" s="152"/>
       <c r="N14" s="152"/>
       <c r="O14" s="152"/>
@@ -56013,11 +56140,11 @@
       <c r="I15" s="129" t="s">
         <v>436</v>
       </c>
-      <c r="J15" s="308" t="s">
+      <c r="J15" s="318" t="s">
         <v>364</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
       <c r="O15" s="152"/>
@@ -56079,11 +56206,11 @@
       <c r="I17" s="158" t="s">
         <v>348</v>
       </c>
-      <c r="J17" s="300" t="s">
+      <c r="J17" s="308" t="s">
         <v>347</v>
       </c>
-      <c r="K17" s="309"/>
-      <c r="L17" s="301"/>
+      <c r="K17" s="310"/>
+      <c r="L17" s="309"/>
       <c r="M17" s="152"/>
       <c r="N17" s="152"/>
       <c r="O17" s="152"/>
@@ -56112,11 +56239,11 @@
       <c r="I18" s="181" t="s">
         <v>346</v>
       </c>
-      <c r="J18" s="300" t="s">
+      <c r="J18" s="308" t="s">
         <v>345</v>
       </c>
-      <c r="K18" s="309"/>
-      <c r="L18" s="301"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="309"/>
       <c r="M18" s="152"/>
       <c r="N18" s="152"/>
       <c r="O18" s="152"/>
@@ -56278,11 +56405,11 @@
     </row>
     <row r="28" spans="1:15" s="176" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="177"/>
-      <c r="B28" s="313" t="s">
+      <c r="B28" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
+      <c r="C28" s="322"/>
+      <c r="D28" s="322"/>
       <c r="E28" s="178"/>
       <c r="F28" s="179"/>
       <c r="G28" s="178"/>
@@ -56297,12 +56424,12 @@
     </row>
     <row r="29" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="172"/>
-      <c r="B29" s="305" t="s">
+      <c r="B29" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="306"/>
-      <c r="D29" s="306"/>
-      <c r="E29" s="307"/>
+      <c r="C29" s="316"/>
+      <c r="D29" s="316"/>
+      <c r="E29" s="317"/>
       <c r="F29" s="173" t="s">
         <v>124</v>
       </c>
@@ -56394,10 +56521,10 @@
       <c r="A32" s="152"/>
       <c r="B32" s="166"/>
       <c r="C32" s="170"/>
-      <c r="D32" s="300" t="s">
+      <c r="D32" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="309"/>
       <c r="F32" s="160" t="s">
         <v>323</v>
       </c>
@@ -56427,10 +56554,10 @@
       <c r="A33" s="152"/>
       <c r="B33" s="166"/>
       <c r="C33" s="161"/>
-      <c r="D33" s="300" t="s">
+      <c r="D33" s="308" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="301"/>
+      <c r="E33" s="309"/>
       <c r="F33" s="160" t="s">
         <v>170</v>
       </c>
@@ -56780,11 +56907,11 @@
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="152"/>
-      <c r="B52" s="310" t="s">
+      <c r="B52" s="319" t="s">
         <v>326</v>
       </c>
-      <c r="C52" s="310"/>
-      <c r="D52" s="310"/>
+      <c r="C52" s="319"/>
+      <c r="D52" s="319"/>
       <c r="E52" s="152"/>
       <c r="F52" s="152"/>
       <c r="G52" s="152"/>
@@ -56801,12 +56928,12 @@
     </row>
     <row r="53" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="172"/>
-      <c r="B53" s="305" t="s">
+      <c r="B53" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="306"/>
-      <c r="D53" s="306"/>
-      <c r="E53" s="307"/>
+      <c r="C53" s="316"/>
+      <c r="D53" s="316"/>
+      <c r="E53" s="317"/>
       <c r="F53" s="173" t="s">
         <v>124</v>
       </c>
@@ -56898,10 +57025,10 @@
       <c r="A56" s="152"/>
       <c r="B56" s="166"/>
       <c r="C56" s="170"/>
-      <c r="D56" s="300" t="s">
+      <c r="D56" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="301"/>
+      <c r="E56" s="309"/>
       <c r="F56" s="160" t="s">
         <v>323</v>
       </c>
@@ -56931,10 +57058,10 @@
       <c r="A57" s="152"/>
       <c r="B57" s="166"/>
       <c r="C57" s="170"/>
-      <c r="D57" s="300" t="s">
+      <c r="D57" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="301"/>
+      <c r="E57" s="309"/>
       <c r="F57" s="160" t="s">
         <v>186</v>
       </c>
@@ -56964,10 +57091,10 @@
       <c r="A58" s="152"/>
       <c r="B58" s="166"/>
       <c r="C58" s="170"/>
-      <c r="D58" s="314" t="s">
+      <c r="D58" s="323" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="301"/>
+      <c r="E58" s="309"/>
       <c r="F58" s="160" t="s">
         <v>189</v>
       </c>
@@ -57418,6 +57545,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
@@ -57431,11 +57563,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -57533,15 +57660,15 @@
       <c r="B4" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="308" t="s">
         <v>369</v>
       </c>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309"/>
-      <c r="H4" s="309"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="309"/>
       <c r="J4" s="152"/>
       <c r="K4" s="152"/>
       <c r="L4" s="152"/>
@@ -57554,15 +57681,15 @@
       <c r="B5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="308" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="152"/>
       <c r="K5" s="152"/>
       <c r="L5" s="152"/>
@@ -57596,15 +57723,15 @@
       <c r="B7" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="308" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="152"/>
       <c r="K7" s="152"/>
       <c r="L7" s="152"/>
@@ -57638,15 +57765,15 @@
       <c r="B9" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="152"/>
@@ -57709,19 +57836,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="314"/>
       <c r="M13" s="152"/>
       <c r="N13" s="152"/>
       <c r="O13" s="152"/>
@@ -57750,11 +57877,11 @@
       <c r="I14" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
       <c r="M14" s="152"/>
       <c r="N14" s="152"/>
       <c r="O14" s="152"/>
@@ -57779,11 +57906,11 @@
       <c r="I15" s="130" t="s">
         <v>270</v>
       </c>
-      <c r="J15" s="308" t="s">
+      <c r="J15" s="318" t="s">
         <v>366</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
       <c r="O15" s="152"/>
@@ -57945,11 +58072,11 @@
     </row>
     <row r="25" spans="1:15" s="176" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="177"/>
-      <c r="B25" s="313" t="s">
+      <c r="B25" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="313"/>
-      <c r="D25" s="313"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="322"/>
       <c r="E25" s="178"/>
       <c r="F25" s="179"/>
       <c r="G25" s="178"/>
@@ -57964,12 +58091,12 @@
     </row>
     <row r="26" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="172"/>
-      <c r="B26" s="305" t="s">
+      <c r="B26" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="306"/>
-      <c r="D26" s="306"/>
-      <c r="E26" s="307"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
+      <c r="E26" s="317"/>
       <c r="F26" s="173" t="s">
         <v>124</v>
       </c>
@@ -58061,10 +58188,10 @@
       <c r="A29" s="152"/>
       <c r="B29" s="166"/>
       <c r="C29" s="170"/>
-      <c r="D29" s="300" t="s">
+      <c r="D29" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="301"/>
+      <c r="E29" s="309"/>
       <c r="F29" s="160" t="s">
         <v>323</v>
       </c>
@@ -58094,10 +58221,10 @@
       <c r="A30" s="152"/>
       <c r="B30" s="166"/>
       <c r="C30" s="161"/>
-      <c r="D30" s="300" t="s">
+      <c r="D30" s="308" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="301"/>
+      <c r="E30" s="309"/>
       <c r="F30" s="160" t="s">
         <v>170</v>
       </c>
@@ -58160,10 +58287,10 @@
       <c r="A32" s="152"/>
       <c r="B32" s="166"/>
       <c r="C32" s="169"/>
-      <c r="D32" s="300" t="s">
+      <c r="D32" s="308" t="s">
         <v>344</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="309"/>
       <c r="F32" s="160" t="s">
         <v>172</v>
       </c>
@@ -58193,10 +58320,10 @@
       <c r="A33" s="152"/>
       <c r="B33" s="166"/>
       <c r="C33" s="169"/>
-      <c r="D33" s="311" t="s">
+      <c r="D33" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="E33" s="312"/>
+      <c r="E33" s="321"/>
       <c r="F33" s="160" t="s">
         <v>340</v>
       </c>
@@ -58226,10 +58353,10 @@
       <c r="A34" s="152"/>
       <c r="B34" s="166"/>
       <c r="C34" s="170"/>
-      <c r="D34" s="300" t="s">
+      <c r="D34" s="308" t="s">
         <v>338</v>
       </c>
-      <c r="E34" s="301"/>
+      <c r="E34" s="309"/>
       <c r="F34" s="160" t="s">
         <v>337</v>
       </c>
@@ -58689,11 +58816,11 @@
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="152"/>
-      <c r="B57" s="310" t="s">
+      <c r="B57" s="319" t="s">
         <v>326</v>
       </c>
-      <c r="C57" s="310"/>
-      <c r="D57" s="310"/>
+      <c r="C57" s="319"/>
+      <c r="D57" s="319"/>
       <c r="E57" s="152"/>
       <c r="F57" s="152"/>
       <c r="G57" s="152"/>
@@ -58710,12 +58837,12 @@
     </row>
     <row r="58" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="172"/>
-      <c r="B58" s="305" t="s">
+      <c r="B58" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="306"/>
-      <c r="D58" s="306"/>
-      <c r="E58" s="307"/>
+      <c r="C58" s="316"/>
+      <c r="D58" s="316"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="173" t="s">
         <v>124</v>
       </c>
@@ -58807,10 +58934,10 @@
       <c r="A61" s="152"/>
       <c r="B61" s="166"/>
       <c r="C61" s="170"/>
-      <c r="D61" s="300" t="s">
+      <c r="D61" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="301"/>
+      <c r="E61" s="309"/>
       <c r="F61" s="160" t="s">
         <v>323</v>
       </c>
@@ -58840,10 +58967,10 @@
       <c r="A62" s="152"/>
       <c r="B62" s="166"/>
       <c r="C62" s="170"/>
-      <c r="D62" s="300" t="s">
+      <c r="D62" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="301"/>
+      <c r="E62" s="309"/>
       <c r="F62" s="160" t="s">
         <v>186</v>
       </c>
@@ -58873,10 +59000,10 @@
       <c r="A63" s="152"/>
       <c r="B63" s="166"/>
       <c r="C63" s="170"/>
-      <c r="D63" s="314" t="s">
+      <c r="D63" s="323" t="s">
         <v>191</v>
       </c>
-      <c r="E63" s="301"/>
+      <c r="E63" s="309"/>
       <c r="F63" s="160" t="s">
         <v>189</v>
       </c>
@@ -58970,8 +59097,8 @@
       <c r="A66" s="152"/>
       <c r="B66" s="162"/>
       <c r="C66" s="161"/>
-      <c r="D66" s="300"/>
-      <c r="E66" s="301"/>
+      <c r="D66" s="308"/>
+      <c r="E66" s="309"/>
       <c r="F66" s="160"/>
       <c r="G66" s="159"/>
       <c r="H66" s="159"/>
@@ -59361,11 +59488,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
@@ -59381,6 +59503,11 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -59477,15 +59604,15 @@
       <c r="B4" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="308" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309"/>
-      <c r="H4" s="309"/>
-      <c r="I4" s="301"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="309"/>
       <c r="J4" s="152"/>
       <c r="K4" s="152"/>
       <c r="L4" s="152"/>
@@ -59498,15 +59625,15 @@
       <c r="B5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="300" t="s">
+      <c r="C5" s="308" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="301"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="309"/>
       <c r="J5" s="152"/>
       <c r="K5" s="152"/>
       <c r="L5" s="152"/>
@@ -59540,15 +59667,15 @@
       <c r="B7" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="300" t="s">
+      <c r="C7" s="308" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="309"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="301"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="152"/>
       <c r="K7" s="152"/>
       <c r="L7" s="152"/>
@@ -59582,15 +59709,15 @@
       <c r="B9" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="300" t="s">
+      <c r="C9" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="309"/>
-      <c r="E9" s="309"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="301"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="152"/>
@@ -59653,19 +59780,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="152"/>
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="304"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="314"/>
       <c r="M13" s="152"/>
       <c r="N13" s="152"/>
       <c r="O13" s="152"/>
@@ -59694,11 +59821,11 @@
       <c r="I14" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="299" t="s">
+      <c r="J14" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="299"/>
-      <c r="L14" s="299"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="311"/>
       <c r="M14" s="152"/>
       <c r="N14" s="152"/>
       <c r="O14" s="152"/>
@@ -59723,11 +59850,11 @@
       <c r="I15" s="129" t="s">
         <v>271</v>
       </c>
-      <c r="J15" s="308" t="s">
+      <c r="J15" s="318" t="s">
         <v>364</v>
       </c>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="152"/>
       <c r="N15" s="152"/>
       <c r="O15" s="152"/>
@@ -59752,11 +59879,11 @@
       <c r="I16" s="129" t="s">
         <v>470</v>
       </c>
-      <c r="J16" s="300" t="s">
+      <c r="J16" s="308" t="s">
         <v>471</v>
       </c>
-      <c r="K16" s="309"/>
-      <c r="L16" s="301"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="309"/>
       <c r="M16" s="152"/>
       <c r="N16" s="152"/>
       <c r="O16" s="152"/>
@@ -59785,11 +59912,11 @@
       <c r="I17" s="129" t="s">
         <v>352</v>
       </c>
-      <c r="J17" s="308" t="s">
+      <c r="J17" s="318" t="s">
         <v>371</v>
       </c>
-      <c r="K17" s="308"/>
-      <c r="L17" s="308"/>
+      <c r="K17" s="318"/>
+      <c r="L17" s="318"/>
       <c r="M17" s="152"/>
       <c r="N17" s="152"/>
       <c r="O17" s="152"/>
@@ -59951,11 +60078,11 @@
     </row>
     <row r="27" spans="1:15" s="176" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="177"/>
-      <c r="B27" s="313" t="s">
+      <c r="B27" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
+      <c r="C27" s="322"/>
+      <c r="D27" s="322"/>
       <c r="E27" s="178"/>
       <c r="F27" s="179"/>
       <c r="G27" s="178"/>
@@ -59970,12 +60097,12 @@
     </row>
     <row r="28" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="172"/>
-      <c r="B28" s="305" t="s">
+      <c r="B28" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="306"/>
-      <c r="D28" s="306"/>
-      <c r="E28" s="307"/>
+      <c r="C28" s="316"/>
+      <c r="D28" s="316"/>
+      <c r="E28" s="317"/>
       <c r="F28" s="173" t="s">
         <v>124</v>
       </c>
@@ -60067,10 +60194,10 @@
       <c r="A31" s="152"/>
       <c r="B31" s="166"/>
       <c r="C31" s="170"/>
-      <c r="D31" s="300" t="s">
+      <c r="D31" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="301"/>
+      <c r="E31" s="309"/>
       <c r="F31" s="160" t="s">
         <v>323</v>
       </c>
@@ -60100,10 +60227,10 @@
       <c r="A32" s="152"/>
       <c r="B32" s="166"/>
       <c r="C32" s="161"/>
-      <c r="D32" s="300" t="s">
+      <c r="D32" s="308" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="301"/>
+      <c r="E32" s="309"/>
       <c r="F32" s="160" t="s">
         <v>170</v>
       </c>
@@ -60166,8 +60293,8 @@
       <c r="A34" s="152"/>
       <c r="B34" s="162"/>
       <c r="C34" s="161"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="301"/>
+      <c r="D34" s="308"/>
+      <c r="E34" s="309"/>
       <c r="F34" s="160"/>
       <c r="G34" s="159"/>
       <c r="H34" s="159"/>
@@ -60489,11 +60616,11 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="152"/>
-      <c r="B53" s="310" t="s">
+      <c r="B53" s="319" t="s">
         <v>326</v>
       </c>
-      <c r="C53" s="310"/>
-      <c r="D53" s="310"/>
+      <c r="C53" s="319"/>
+      <c r="D53" s="319"/>
       <c r="E53" s="152"/>
       <c r="F53" s="152"/>
       <c r="G53" s="152"/>
@@ -60510,12 +60637,12 @@
     </row>
     <row r="54" spans="1:15" s="171" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="172"/>
-      <c r="B54" s="305" t="s">
+      <c r="B54" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="306"/>
-      <c r="D54" s="306"/>
-      <c r="E54" s="307"/>
+      <c r="C54" s="316"/>
+      <c r="D54" s="316"/>
+      <c r="E54" s="317"/>
       <c r="F54" s="173" t="s">
         <v>124</v>
       </c>
@@ -60607,10 +60734,10 @@
       <c r="A57" s="152"/>
       <c r="B57" s="166"/>
       <c r="C57" s="170"/>
-      <c r="D57" s="300" t="s">
+      <c r="D57" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="301"/>
+      <c r="E57" s="309"/>
       <c r="F57" s="160" t="s">
         <v>323</v>
       </c>
@@ -60640,10 +60767,10 @@
       <c r="A58" s="152"/>
       <c r="B58" s="166"/>
       <c r="C58" s="170"/>
-      <c r="D58" s="300" t="s">
+      <c r="D58" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="301"/>
+      <c r="E58" s="309"/>
       <c r="F58" s="160" t="s">
         <v>186</v>
       </c>
@@ -60673,10 +60800,10 @@
       <c r="A59" s="152"/>
       <c r="B59" s="166"/>
       <c r="C59" s="170"/>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="323" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="301"/>
+      <c r="E59" s="309"/>
       <c r="F59" s="160" t="s">
         <v>189</v>
       </c>
@@ -60770,8 +60897,8 @@
       <c r="A62" s="152"/>
       <c r="B62" s="162"/>
       <c r="C62" s="161"/>
-      <c r="D62" s="300"/>
-      <c r="E62" s="301"/>
+      <c r="D62" s="308"/>
+      <c r="E62" s="309"/>
       <c r="F62" s="160"/>
       <c r="G62" s="159"/>
       <c r="H62" s="159"/>
@@ -61161,17 +61288,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D58:E58"/>
@@ -61181,6 +61297,17 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
